--- a/docs/docs_I_made/ebordron_review_packages_R__02_03_2022.xlsx
+++ b/docs/docs_I_made/ebordron_review_packages_R__02_03_2022.xlsx
@@ -976,7 +976,7 @@
   <dimension ref="A1:AC137"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/docs/docs_I_made/ebordron_review_packages_R__02_03_2022.xlsx
+++ b/docs/docs_I_made/ebordron_review_packages_R__02_03_2022.xlsx
@@ -2,14 +2,14 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\e.bordron\Desktop\CGH-scoring\M2_internship_Bergonie\docs\docs_I_made\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="14385"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="14385" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="main" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="179">
   <si>
     <t>oncoscanR</t>
   </si>
@@ -58,15 +58,6 @@
   </si>
   <si>
     <t>platform</t>
-  </si>
-  <si>
-    <t>analyzing and interactively visualizing genomic profiles
- generated through aCGH arrays.
-All the steps required for individual genomic profiles analysis:
-reading files , 
-profiles segmentation, 
-gene annotations
-Also, it provides some visualization functions for individual profile inerpretation</t>
   </si>
   <si>
     <t>entrezid</t>
@@ -346,15 +337,9 @@
     <t xml:space="preserve"> ChrNum</t>
   </si>
   <si>
-    <t>present in cnchp files</t>
-  </si>
-  <si>
     <t xml:space="preserve"> present in filename.segments.txt</t>
   </si>
   <si>
-    <t xml:space="preserve"> present in cnchp files</t>
-  </si>
-  <si>
     <t>ProbeName</t>
   </si>
   <si>
@@ -362,15 +347,6 @@
   </si>
   <si>
     <t>tableau3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Affymetrix SNP6.0 and cytoScanHD files: 
-- probeset.txt,
-- cychp.txt
-- cnchp.txt . 
-They are exported from ChAS or Affymetrix Power Tools.
-rCGH also supports custom arrays, but we need data from a cnchp file to build it. CF. tableau 3
-</t>
   </si>
   <si>
     <t>Character strings.
@@ -389,11 +365,6 @@
 The corresponding Log2Ratios.</t>
   </si>
   <si>
-    <t xml:space="preserve">
-l'output de segmentation (CF. tableau 1 ) est de la forme d'un output DNAcopy.
-Ce fichier peut être converti en tableau dont les gènes sont les lignes (CF. tableau 2)</t>
-  </si>
-  <si>
     <t>potentiellement total et allele-specific</t>
   </si>
   <si>
@@ -409,16 +380,84 @@
     <t>potentiellement au niveau du gène</t>
   </si>
   <si>
-    <t>cross-platform sur le papier</t>
-  </si>
-  <si>
     <t>fonctionne sur windows</t>
   </si>
   <si>
     <t>ne fonctionne pas sur windows (bug connu des devs)</t>
   </si>
   <si>
-    <t>plus d'infos sur les fichiers de sortie seront disponibles après avoir lancé le package
+    <t>image 1</t>
+  </si>
+  <si>
+    <t>perform relative or absolute copy-number analysis
+normalization, LRR &amp; BAF Segmentation, Copy-number estimation.
+LRR est le log ratio d'un marqueur par rapport à la référence.
+LRR = log(sample) - log(reference)
+BAF = B-allele  Frequency
+Ces deux scores sont utilisés dans ChAS pour visualiser les résultats (voir image 1 en annexe), ici ils servent à segmenter le génome.
+Provide several png files to view analysis</t>
+  </si>
+  <si>
+    <t>Les scores Log R et BAF  sont utilisés pour  déterminer la  segmentation du  génome</t>
+  </si>
+  <si>
+    <t>Computation of arm-level alteration. 
+Score LST (Large-scale State Transition):
+un LST est un breakpoint (point de séparation entre 2 segments ayant des valeurs de CN différentes) dont les 2 segments font plus de 10 Mb. Ce score, qui correspond au nombre de LST, est un bon indicateur de l'état du gène BRCA1 (dont l'inactivation est souvent constatée dans le carcinome du sein). BRCA1 participe au pathway de recombination homologue (un procédé de réparation de l'ADN lors d'un double-strand break), et sa mutation accompagne souvent les cancers du sein ou des ovaires. Une Homologous Recombination Deficiency (HRD) peut être déterminée par la mutation de BRCA1.
+Score LOH (Loss of Heterozygosity):
+Ce score correspond au nombre de segments présentant une perte d'hétérozygotie sur plus de 15 Mb. La perte d'hétérozygotie est la disparition d'un allèle sur un des deux chromosomes, supprimant du génome l'une des 2 copies de ce gène. Un lien entre ce score et une déficience du gène BRCA a été mis en évidence par les auteurs de l'article, ce qui indique que ce score est un bon indicateur de HRD.
+Score Tdplus (Tandem Duplication plus):
+Ce score est défini par le nombre de régions exprimant un gain d'une ou 2 copies (tandem duplication) et dont la taille est comprise entre 1 et 10 Mb. Le score TDplus a été lié à l'occurrence de tumeurs CDK12-deficient. Le gène CDK12 est impliqué dans la régulation de l'ARN polymérase 2, dont le dysfonctionnement va souvent de pair avec l'apparition de cancers.
+autres scores: average copy number variation, number of whole-genome doubling events, total number of Mbp altered …</t>
+  </si>
+  <si>
+    <t>potentiellement cross-platform</t>
+  </si>
+  <si>
+    <t>OncoSNP</t>
+  </si>
+  <si>
+    <t>ASCAT</t>
+  </si>
+  <si>
+    <t>GenoCNA</t>
+  </si>
+  <si>
+    <t>GISTIC</t>
+  </si>
+  <si>
+    <t>CGHcall</t>
+  </si>
+  <si>
+    <t>analyzing and interactively visualizing genomic profiles
+ generated through aCGH arrays.
+All the steps required for individual genomic profiles analysis:
+reading files , 
+profiles segmentation, 
+gene annotations
+Also, it provides some visualization functions for individual profile interpretation</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>plus d'infos sur les fichiers de sortie seront disponibles après avoir lancé le package</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
 1. normalization:
 - a png: graphical representation of the normalized L2R and BAF data
 - metrics of the array
@@ -432,38 +471,285 @@
 - global ploidy 
 - sample cellularity 
 - more png files</t>
-  </si>
-  <si>
-    <t>image 1</t>
-  </si>
-  <si>
-    <t>perform relative or absolute copy-number analysis
-normalization, LRR &amp; BAF Segmentation, Copy-number estimation.
-LRR est le log ratio d'un marqueur par rapport à la référence.
-LRR = log(sample) - log(reference)
-BAF = B-allele  Frequency
-Ces deux scores sont utilisés dans ChAS pour visualiser les résultats (voir image 1 en annexe), ici ils servent à segmenter le génome.
-Provide several png files to view analysis</t>
-  </si>
-  <si>
-    <t>Computation of arm-level alteration. 
-Score LST (Large-scale State Transition):
-un LST est un breakpoint (point de séparation entre 2 segments ayant des valeurs de CN différentes) dont les 2 segments font plus de 10 Mb. le score LST est un bon indicateur de l'état du gène BRCA1 (dont l'inactivation est souvent constatée dans le carcinome du sein). BRCA1 participe au pathway de recombination homologue (voir cahier, un procédé de réparation de l'ADN lors d'un double-strand break), et sa mutation accompagne souvent les cancers du sein ou des ovaires. Une Homologous Recombination Deficiency (HRD) peut être déterminée par la mutation de BRCA1.
-Score LOH (Loss of Heterozygosity):
-Ce score correspond au nombre de segments présentant une perte d'hétérozygotie sur plus de 15 Mb. La perte d'hétérozygotie est la disparition d'un allèle sur un des deux chromosomes, supprimant du génome l'une des 2 copies de ce gène. Un lien entre ce score et une déficience du gène BRCA a été mis en évidence par les auteurs de l'article, ce qui indique que ce score est un bon indicateur de HRD.
-Score Tdplus (Tandem Duplication plus):
-Ce score est défini par le nombre de régions exprimant un gain d'une ou 2 copies (tandem duplication) et dont la taille est comprise entre 1 et 10 Mb. Le score TDplus a été lié à l'occurrence de tumeurs CDK12-deficient. Le gène CDK12 est impliqué dans la régulation de l'ARN polymérase 2, dont le dysfonctionnement va souvent de pair avec l'apparition de cancers.
-: average copy number variation, number of whole-genome doubling events, total number of Mbp altered …</t>
-  </si>
-  <si>
-    <t>Les scores Log R et BAF  sont utilisés pour  déterminer la  segmentation du  génome</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">
+l'output de segmentation (</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">CF. tableau 1 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>) est de la forme d'un output DNAcopy.
+Ce fichier peut être converti en tableau dont les gènes sont les lignes (</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>CF. tableau 2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Affymetrix SNP6.0 and cytoScanHD files: 
+- probeset.txt,
+- cychp.txt
+- cnchp.txt . 
+They are exported from ChAS or Affymetrix Power Tools.
+rCGH also supports custom arrays, but we need data from a cnchp file to build it. </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>CF. tableau 3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+  </si>
+  <si>
+    <t>CF. tableau 4</t>
+  </si>
+  <si>
+    <t>Name  </t>
+  </si>
+  <si>
+    <t> Chromosome  </t>
+  </si>
+  <si>
+    <t> Position  </t>
+  </si>
+  <si>
+    <t>rs7754266</t>
+  </si>
+  <si>
+    <t>  </t>
+  </si>
+  <si>
+    <t> -0.5716357</t>
+  </si>
+  <si>
+    <t>  0</t>
+  </si>
+  <si>
+    <t>rs719065</t>
+  </si>
+  <si>
+    <t> -0.7693527</t>
+  </si>
+  <si>
+    <t>  0.9959651</t>
+  </si>
+  <si>
+    <t>rs1986818</t>
+  </si>
+  <si>
+    <t> -1.006485</t>
+  </si>
+  <si>
+    <t>  0.9946118</t>
+  </si>
+  <si>
+    <t>rs6920539</t>
+  </si>
+  <si>
+    <t> -0.6332625</t>
+  </si>
+  <si>
+    <t>  0.002409605</t>
+  </si>
+  <si>
+    <t>  B Allele Frequency</t>
+  </si>
+  <si>
+    <t>Log R ratio</t>
+  </si>
+  <si>
+    <t>tableau 4</t>
+  </si>
+  <si>
+    <t>input d'oncoSNP</t>
+  </si>
+  <si>
+    <t>output segmentation rCGH</t>
+  </si>
+  <si>
+    <t>output par gène rCGH</t>
+  </si>
+  <si>
+    <t>input rCGH</t>
+  </si>
+  <si>
+    <t>CEL files</t>
+  </si>
+  <si>
+    <t>tableau 5</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>Chr</t>
+  </si>
+  <si>
+    <t>Position</t>
+  </si>
+  <si>
+    <t>rs12354060</t>
+  </si>
+  <si>
+    <t>rs2691310</t>
+  </si>
+  <si>
+    <t>PFB (population frequency of B alelle)</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">PFB file. </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>CF. tableau 5</t>
+    </r>
+  </si>
+  <si>
+    <t>input de genoCNA</t>
+  </si>
+  <si>
+    <t>Sample</t>
+  </si>
+  <si>
+    <t>Chromosome</t>
+  </si>
+  <si>
+    <t>Seg.CN</t>
+  </si>
+  <si>
+    <t>secondary_GBM_6</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> -0.5836395</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> -3.057187</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> -0.582535</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.1422075</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.126455</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> -1.072765</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.141225</t>
+  </si>
+  <si>
+    <t>Start Position</t>
+  </si>
+  <si>
+    <t>End Position</t>
+  </si>
+  <si>
+    <t>Num Markers</t>
+  </si>
+  <si>
+    <t>tableau 6</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">The input column headers are:
+    (1)  Sample           (sample name)
+    (2)  Chromosome  (chromosome number)
+    (3)  Start Position  (segment start position, in bases)
+    (4)  End Position   (segment end position, in bases)
+    (5)  Num markers      (number of markers in segment)
+    (6)  Seg.CN       (log2() -1 of copy number)
+</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>CF. tableau 6</t>
+    </r>
+  </si>
+  <si>
+    <t>objet R: cghSeg
+https://www.rdocumentation.org/packages/CGHbase/versions/1.32.0/topics/cghSeg</t>
+  </si>
+  <si>
+    <t>need of cnchp files</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -471,8 +757,16 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -487,18 +781,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -517,24 +805,11 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
@@ -549,29 +824,17 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -590,6 +853,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -618,8 +884,8 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>30099</xdr:colOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>306324</xdr:colOff>
       <xdr:row>63</xdr:row>
       <xdr:rowOff>29672</xdr:rowOff>
     </xdr:to>
@@ -702,6 +968,48 @@
     <tableColumn id="2" name=" ChrNum"/>
     <tableColumn id="3" name=" ChrStart"/>
     <tableColumn id="4" name="Log2Ratio"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tableau1" displayName="Tableau1" ref="B67:F71" totalsRowShown="0">
+  <autoFilter ref="B67:F71"/>
+  <tableColumns count="5">
+    <tableColumn id="1" name="Name  "/>
+    <tableColumn id="2" name=" Chromosome  "/>
+    <tableColumn id="3" name=" Position  "/>
+    <tableColumn id="4" name="Log R ratio"/>
+    <tableColumn id="5" name="  B Allele Frequency"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="Tableau5" displayName="Tableau5" ref="B74:E76" totalsRowShown="0">
+  <autoFilter ref="B74:E76"/>
+  <tableColumns count="4">
+    <tableColumn id="1" name="Name"/>
+    <tableColumn id="2" name="Chr"/>
+    <tableColumn id="3" name="Position"/>
+    <tableColumn id="4" name="PFB (population frequency of B alelle)"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="6" name="Tableau6" displayName="Tableau6" ref="B79:G86" totalsRowShown="0">
+  <autoFilter ref="B79:G86"/>
+  <tableColumns count="6">
+    <tableColumn id="1" name="Sample"/>
+    <tableColumn id="2" name="Chromosome"/>
+    <tableColumn id="3" name="Start Position"/>
+    <tableColumn id="4" name="End Position"/>
+    <tableColumn id="5" name="Num Markers"/>
+    <tableColumn id="6" name="Seg.CN"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -970,23 +1278,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
+  <sheetPr codeName="Feuil1">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:AC137"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.42578125" style="15"/>
-    <col min="2" max="2" width="61.28515625" style="15" customWidth="1"/>
-    <col min="3" max="3" width="60.85546875" style="15" customWidth="1"/>
-    <col min="4" max="4" width="72.7109375" style="15" customWidth="1"/>
-    <col min="5" max="5" width="41.28515625" style="15" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="50.85546875" style="15" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.42578125" style="11"/>
+    <col min="2" max="2" width="61.28515625" style="11" customWidth="1"/>
+    <col min="3" max="3" width="60.85546875" style="11" customWidth="1"/>
+    <col min="4" max="4" width="72.7109375" style="11" customWidth="1"/>
+    <col min="5" max="5" width="41.28515625" style="11" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="50.85546875" style="11" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="12.140625" style="4" customWidth="1"/>
     <col min="8" max="8" width="11.7109375" style="4" customWidth="1"/>
     <col min="9" max="9" width="11.42578125" style="4"/>
@@ -1047,19 +1355,19 @@
         <v>0</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="C2" s="6" t="s">
         <v>7</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E2" s="6" t="s">
         <v>6</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="G2" s="4"/>
       <c r="H2" s="4"/>
@@ -1090,19 +1398,19 @@
         <v>2</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>8</v>
       </c>
       <c r="D3" s="9" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="G3" s="4"/>
       <c r="H3" s="4"/>
@@ -1128,24 +1436,24 @@
       <c r="AB3" s="4"/>
       <c r="AC3" s="4"/>
     </row>
-    <row r="4" spans="1:29" s="13" customFormat="1" ht="150" x14ac:dyDescent="0.25">
-      <c r="A4" s="10" t="s">
+    <row r="4" spans="1:29" s="8" customFormat="1" ht="150" x14ac:dyDescent="0.25">
+      <c r="A4" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="C4" s="12" t="s">
-        <v>105</v>
-      </c>
-      <c r="D4" s="11" t="s">
+      <c r="B4" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="E4" s="6" t="s">
         <v>110</v>
       </c>
-      <c r="E4" s="10" t="s">
-        <v>115</v>
-      </c>
-      <c r="F4" s="10" t="s">
-        <v>116</v>
+      <c r="F4" s="6" t="s">
+        <v>117</v>
       </c>
       <c r="G4" s="4"/>
       <c r="H4" s="4"/>
@@ -1172,1068 +1480,1134 @@
       <c r="AC4" s="4"/>
     </row>
     <row r="5" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A5" s="14"/>
-      <c r="B5" s="14"/>
-      <c r="C5" s="14"/>
-      <c r="D5" s="14"/>
-      <c r="E5" s="14"/>
-      <c r="F5" s="14"/>
-    </row>
-    <row r="6" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A6" s="14"/>
-      <c r="B6" s="14"/>
-      <c r="C6" s="14"/>
-      <c r="D6" s="14"/>
-      <c r="E6" s="14"/>
-      <c r="F6" s="14"/>
+      <c r="A5" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="B5" s="3"/>
+      <c r="C5" s="16" t="s">
+        <v>127</v>
+      </c>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3"/>
+      <c r="F5" s="3"/>
+    </row>
+    <row r="6" spans="1:29" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="B6" s="7"/>
+      <c r="C6" s="6" t="s">
+        <v>151</v>
+      </c>
+      <c r="D6" s="7"/>
+      <c r="E6" s="6"/>
+      <c r="F6" s="6"/>
+      <c r="G6" s="4"/>
+      <c r="H6" s="4"/>
+      <c r="I6" s="4"/>
+      <c r="J6" s="4"/>
+      <c r="K6" s="4"/>
+      <c r="L6" s="4"/>
+      <c r="M6" s="4"/>
+      <c r="N6" s="4"/>
+      <c r="O6" s="4"/>
+      <c r="P6" s="4"/>
+      <c r="Q6" s="4"/>
+      <c r="R6" s="4"/>
+      <c r="S6" s="4"/>
+      <c r="T6" s="4"/>
+      <c r="U6" s="4"/>
+      <c r="V6" s="4"/>
+      <c r="W6" s="4"/>
+      <c r="X6" s="4"/>
+      <c r="Y6" s="4"/>
+      <c r="Z6" s="4"/>
+      <c r="AA6" s="4"/>
+      <c r="AB6" s="4"/>
+      <c r="AC6" s="4"/>
     </row>
     <row r="7" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A7" s="14"/>
-      <c r="B7" s="14"/>
-      <c r="C7" s="14"/>
-      <c r="D7" s="14"/>
-      <c r="E7" s="14"/>
-      <c r="F7" s="14"/>
-    </row>
-    <row r="8" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A8" s="14"/>
-      <c r="B8" s="14"/>
-      <c r="C8" s="14"/>
-      <c r="D8" s="14"/>
-      <c r="E8" s="14"/>
-      <c r="F8" s="14"/>
-    </row>
-    <row r="9" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A9" s="14"/>
-      <c r="B9" s="14"/>
-      <c r="C9" s="14"/>
-      <c r="D9" s="14"/>
-      <c r="E9" s="14"/>
-      <c r="F9" s="14"/>
+      <c r="A7" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="B7" s="9"/>
+      <c r="C7" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="D7" s="9"/>
+      <c r="E7" s="3"/>
+      <c r="F7" s="3"/>
+    </row>
+    <row r="8" spans="1:29" s="8" customFormat="1" ht="120" x14ac:dyDescent="0.25">
+      <c r="A8" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="B8" s="7"/>
+      <c r="C8" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="D8" s="7"/>
+      <c r="E8" s="6"/>
+      <c r="F8" s="6"/>
+      <c r="G8" s="4"/>
+      <c r="H8" s="4"/>
+      <c r="I8" s="4"/>
+      <c r="J8" s="4"/>
+      <c r="K8" s="4"/>
+      <c r="L8" s="4"/>
+      <c r="M8" s="4"/>
+      <c r="N8" s="4"/>
+      <c r="O8" s="4"/>
+      <c r="P8" s="4"/>
+      <c r="Q8" s="4"/>
+      <c r="R8" s="4"/>
+      <c r="S8" s="4"/>
+      <c r="T8" s="4"/>
+      <c r="U8" s="4"/>
+      <c r="V8" s="4"/>
+      <c r="W8" s="4"/>
+      <c r="X8" s="4"/>
+      <c r="Y8" s="4"/>
+      <c r="Z8" s="4"/>
+      <c r="AA8" s="4"/>
+      <c r="AB8" s="4"/>
+      <c r="AC8" s="4"/>
+    </row>
+    <row r="9" spans="1:29" ht="45" x14ac:dyDescent="0.25">
+      <c r="A9" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="B9" s="9"/>
+      <c r="C9" s="9" t="s">
+        <v>177</v>
+      </c>
+      <c r="D9" s="9"/>
+      <c r="E9" s="3"/>
+      <c r="F9" s="3"/>
     </row>
     <row r="10" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A10" s="14"/>
-      <c r="B10" s="14"/>
-      <c r="C10" s="14"/>
-      <c r="D10" s="14"/>
-      <c r="E10" s="14"/>
-      <c r="F10" s="14"/>
+      <c r="A10" s="10"/>
+      <c r="B10" s="10"/>
+      <c r="C10" s="10"/>
+      <c r="D10" s="10"/>
+      <c r="E10" s="10"/>
+      <c r="F10" s="10"/>
     </row>
     <row r="11" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A11" s="14"/>
-      <c r="B11" s="14"/>
-      <c r="C11" s="14"/>
-      <c r="D11" s="14"/>
-      <c r="E11" s="14"/>
-      <c r="F11" s="14"/>
+      <c r="A11" s="10"/>
+      <c r="B11" s="10"/>
+      <c r="C11" s="10"/>
+      <c r="D11" s="10"/>
+      <c r="E11" s="10"/>
+      <c r="F11" s="10"/>
     </row>
     <row r="12" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A12" s="14"/>
-      <c r="B12" s="14"/>
-      <c r="C12" s="14"/>
-      <c r="D12" s="14"/>
-      <c r="E12" s="14"/>
-      <c r="F12" s="14"/>
+      <c r="A12" s="10"/>
+      <c r="B12" s="10"/>
+      <c r="C12" s="10"/>
+      <c r="D12" s="10"/>
+      <c r="E12" s="10"/>
+      <c r="F12" s="10"/>
     </row>
     <row r="13" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A13" s="14"/>
-      <c r="B13" s="14"/>
-      <c r="C13" s="14"/>
-      <c r="D13" s="14"/>
-      <c r="E13" s="14"/>
-      <c r="F13" s="14"/>
+      <c r="A13" s="10"/>
+      <c r="B13" s="10"/>
+      <c r="C13" s="10"/>
+      <c r="D13" s="10"/>
+      <c r="E13" s="10"/>
+      <c r="F13" s="10"/>
     </row>
     <row r="14" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A14" s="14"/>
-      <c r="B14" s="14"/>
-      <c r="C14" s="14"/>
-      <c r="D14" s="14"/>
-      <c r="E14" s="14"/>
-      <c r="F14" s="14"/>
+      <c r="A14" s="10"/>
+      <c r="B14" s="10"/>
+      <c r="C14" s="10"/>
+      <c r="D14" s="10"/>
+      <c r="E14" s="10"/>
+      <c r="F14" s="10"/>
     </row>
     <row r="15" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A15" s="14"/>
-      <c r="B15" s="14"/>
-      <c r="C15" s="14"/>
-      <c r="D15" s="14"/>
-      <c r="E15" s="14"/>
-      <c r="F15" s="14"/>
+      <c r="A15" s="10"/>
+      <c r="B15" s="10"/>
+      <c r="C15" s="10"/>
+      <c r="D15" s="10"/>
+      <c r="E15" s="10"/>
+      <c r="F15" s="10"/>
     </row>
     <row r="16" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A16" s="14"/>
-      <c r="B16" s="14"/>
-      <c r="C16" s="14"/>
-      <c r="D16" s="14"/>
-      <c r="E16" s="14"/>
-      <c r="F16" s="14"/>
+      <c r="A16" s="10"/>
+      <c r="B16" s="10"/>
+      <c r="C16" s="10"/>
+      <c r="D16" s="10"/>
+      <c r="E16" s="10"/>
+      <c r="F16" s="10"/>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="14"/>
-      <c r="B17" s="14"/>
-      <c r="C17" s="14"/>
-      <c r="D17" s="14"/>
-      <c r="E17" s="14"/>
-      <c r="F17" s="14"/>
+      <c r="A17" s="10"/>
+      <c r="B17" s="10"/>
+      <c r="C17" s="10"/>
+      <c r="D17" s="10"/>
+      <c r="E17" s="10"/>
+      <c r="F17" s="10"/>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="14"/>
-      <c r="B18" s="14"/>
-      <c r="C18" s="14"/>
-      <c r="D18" s="14"/>
-      <c r="E18" s="14"/>
-      <c r="F18" s="14"/>
+      <c r="A18" s="10"/>
+      <c r="B18" s="10"/>
+      <c r="C18" s="10"/>
+      <c r="D18" s="10"/>
+      <c r="E18" s="10"/>
+      <c r="F18" s="10"/>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="14"/>
-      <c r="B19" s="14"/>
-      <c r="C19" s="14"/>
-      <c r="D19" s="14"/>
-      <c r="E19" s="14"/>
-      <c r="F19" s="14"/>
+      <c r="A19" s="10"/>
+      <c r="B19" s="10"/>
+      <c r="C19" s="10"/>
+      <c r="D19" s="10"/>
+      <c r="E19" s="10"/>
+      <c r="F19" s="10"/>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" s="14"/>
-      <c r="B20" s="14"/>
-      <c r="C20" s="14"/>
-      <c r="D20" s="14"/>
-      <c r="E20" s="14"/>
-      <c r="F20" s="14"/>
+      <c r="A20" s="10"/>
+      <c r="B20" s="10"/>
+      <c r="C20" s="10"/>
+      <c r="D20" s="10"/>
+      <c r="E20" s="10"/>
+      <c r="F20" s="10"/>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" s="14"/>
-      <c r="B21" s="14"/>
-      <c r="C21" s="14"/>
-      <c r="D21" s="14"/>
-      <c r="E21" s="14"/>
-      <c r="F21" s="14"/>
+      <c r="A21" s="10"/>
+      <c r="B21" s="10"/>
+      <c r="C21" s="10"/>
+      <c r="D21" s="10"/>
+      <c r="E21" s="10"/>
+      <c r="F21" s="10"/>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" s="14"/>
-      <c r="B22" s="14"/>
-      <c r="C22" s="14"/>
-      <c r="D22" s="14"/>
-      <c r="E22" s="14"/>
-      <c r="F22" s="14"/>
+      <c r="A22" s="10"/>
+      <c r="B22" s="10"/>
+      <c r="C22" s="10"/>
+      <c r="D22" s="10"/>
+      <c r="E22" s="10"/>
+      <c r="F22" s="10"/>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" s="14"/>
-      <c r="B23" s="14"/>
-      <c r="C23" s="14"/>
-      <c r="D23" s="14"/>
-      <c r="E23" s="14"/>
-      <c r="F23" s="14"/>
+      <c r="A23" s="10"/>
+      <c r="B23" s="10"/>
+      <c r="C23" s="10"/>
+      <c r="D23" s="10"/>
+      <c r="E23" s="10"/>
+      <c r="F23" s="10"/>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" s="14"/>
-      <c r="B24" s="14"/>
-      <c r="C24" s="14"/>
-      <c r="D24" s="14"/>
-      <c r="E24" s="14"/>
-      <c r="F24" s="14"/>
+      <c r="A24" s="10"/>
+      <c r="B24" s="10"/>
+      <c r="C24" s="10"/>
+      <c r="D24" s="10"/>
+      <c r="E24" s="10"/>
+      <c r="F24" s="10"/>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25" s="14"/>
-      <c r="B25" s="14"/>
-      <c r="C25" s="14"/>
-      <c r="D25" s="14"/>
-      <c r="E25" s="14"/>
-      <c r="F25" s="14"/>
+      <c r="A25" s="10"/>
+      <c r="B25" s="10"/>
+      <c r="C25" s="10"/>
+      <c r="D25" s="10"/>
+      <c r="E25" s="10"/>
+      <c r="F25" s="10"/>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26" s="14"/>
-      <c r="B26" s="14"/>
-      <c r="C26" s="14"/>
-      <c r="D26" s="14"/>
-      <c r="E26" s="14"/>
-      <c r="F26" s="14"/>
+      <c r="A26" s="10"/>
+      <c r="B26" s="10"/>
+      <c r="C26" s="10"/>
+      <c r="D26" s="10"/>
+      <c r="E26" s="10"/>
+      <c r="F26" s="10"/>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A27" s="14"/>
-      <c r="B27" s="14"/>
-      <c r="C27" s="14"/>
-      <c r="D27" s="14"/>
-      <c r="E27" s="14"/>
-      <c r="F27" s="14"/>
+      <c r="A27" s="10"/>
+      <c r="B27" s="10"/>
+      <c r="C27" s="10"/>
+      <c r="D27" s="10"/>
+      <c r="E27" s="10"/>
+      <c r="F27" s="10"/>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A28" s="14"/>
-      <c r="B28" s="14"/>
-      <c r="C28" s="14"/>
-      <c r="D28" s="14"/>
-      <c r="E28" s="14"/>
-      <c r="F28" s="14"/>
+      <c r="A28" s="10"/>
+      <c r="B28" s="10"/>
+      <c r="C28" s="10"/>
+      <c r="D28" s="10"/>
+      <c r="E28" s="10"/>
+      <c r="F28" s="10"/>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A29" s="14"/>
-      <c r="B29" s="14"/>
-      <c r="C29" s="14"/>
-      <c r="D29" s="14"/>
-      <c r="E29" s="14"/>
-      <c r="F29" s="14"/>
+      <c r="A29" s="10"/>
+      <c r="B29" s="10"/>
+      <c r="C29" s="10"/>
+      <c r="D29" s="10"/>
+      <c r="E29" s="10"/>
+      <c r="F29" s="10"/>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A30" s="14"/>
-      <c r="B30" s="14"/>
-      <c r="C30" s="14"/>
-      <c r="D30" s="14"/>
-      <c r="E30" s="14"/>
-      <c r="F30" s="14"/>
+      <c r="A30" s="10"/>
+      <c r="B30" s="10"/>
+      <c r="C30" s="10"/>
+      <c r="D30" s="10"/>
+      <c r="E30" s="10"/>
+      <c r="F30" s="10"/>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A31" s="14"/>
-      <c r="B31" s="14"/>
-      <c r="C31" s="14"/>
-      <c r="D31" s="14"/>
-      <c r="E31" s="14"/>
-      <c r="F31" s="14"/>
+      <c r="A31" s="10"/>
+      <c r="B31" s="10"/>
+      <c r="C31" s="10"/>
+      <c r="D31" s="10"/>
+      <c r="E31" s="10"/>
+      <c r="F31" s="10"/>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A32" s="14"/>
-      <c r="B32" s="14"/>
-      <c r="C32" s="14"/>
-      <c r="D32" s="14"/>
-      <c r="E32" s="14"/>
-      <c r="F32" s="14"/>
+      <c r="A32" s="10"/>
+      <c r="B32" s="10"/>
+      <c r="C32" s="10"/>
+      <c r="D32" s="10"/>
+      <c r="E32" s="10"/>
+      <c r="F32" s="10"/>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A33" s="14"/>
-      <c r="B33" s="14"/>
-      <c r="C33" s="14"/>
-      <c r="D33" s="14"/>
-      <c r="E33" s="14"/>
-      <c r="F33" s="14"/>
+      <c r="A33" s="10"/>
+      <c r="B33" s="10"/>
+      <c r="C33" s="10"/>
+      <c r="D33" s="10"/>
+      <c r="E33" s="10"/>
+      <c r="F33" s="10"/>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A34" s="14"/>
-      <c r="B34" s="14"/>
-      <c r="C34" s="14"/>
-      <c r="D34" s="14"/>
-      <c r="E34" s="14"/>
-      <c r="F34" s="14"/>
+      <c r="A34" s="10"/>
+      <c r="B34" s="10"/>
+      <c r="C34" s="10"/>
+      <c r="D34" s="10"/>
+      <c r="E34" s="10"/>
+      <c r="F34" s="10"/>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A35" s="14"/>
-      <c r="B35" s="14"/>
-      <c r="C35" s="14"/>
-      <c r="D35" s="14"/>
-      <c r="E35" s="14"/>
-      <c r="F35" s="14"/>
+      <c r="A35" s="10"/>
+      <c r="B35" s="10"/>
+      <c r="C35" s="10"/>
+      <c r="D35" s="10"/>
+      <c r="E35" s="10"/>
+      <c r="F35" s="10"/>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A36" s="14"/>
-      <c r="B36" s="14"/>
-      <c r="C36" s="14"/>
-      <c r="D36" s="14"/>
-      <c r="E36" s="14"/>
-      <c r="F36" s="14"/>
+      <c r="A36" s="10"/>
+      <c r="B36" s="10"/>
+      <c r="C36" s="10"/>
+      <c r="D36" s="10"/>
+      <c r="E36" s="10"/>
+      <c r="F36" s="10"/>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A37" s="14"/>
-      <c r="B37" s="14"/>
-      <c r="C37" s="14"/>
-      <c r="D37" s="14"/>
-      <c r="E37" s="14"/>
-      <c r="F37" s="14"/>
+      <c r="A37" s="10"/>
+      <c r="B37" s="10"/>
+      <c r="C37" s="10"/>
+      <c r="D37" s="10"/>
+      <c r="E37" s="10"/>
+      <c r="F37" s="10"/>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A38" s="14"/>
-      <c r="B38" s="14"/>
-      <c r="C38" s="14"/>
-      <c r="D38" s="14"/>
-      <c r="E38" s="14"/>
-      <c r="F38" s="14"/>
+      <c r="A38" s="10"/>
+      <c r="B38" s="10"/>
+      <c r="C38" s="10"/>
+      <c r="D38" s="10"/>
+      <c r="E38" s="10"/>
+      <c r="F38" s="10"/>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A39" s="14"/>
-      <c r="B39" s="14"/>
-      <c r="C39" s="14"/>
-      <c r="D39" s="14"/>
-      <c r="E39" s="14"/>
-      <c r="F39" s="14"/>
+      <c r="A39" s="10"/>
+      <c r="B39" s="10"/>
+      <c r="C39" s="10"/>
+      <c r="D39" s="10"/>
+      <c r="E39" s="10"/>
+      <c r="F39" s="10"/>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A40" s="14"/>
-      <c r="B40" s="14"/>
-      <c r="C40" s="14"/>
-      <c r="D40" s="14"/>
-      <c r="E40" s="14"/>
-      <c r="F40" s="14"/>
+      <c r="A40" s="10"/>
+      <c r="B40" s="10"/>
+      <c r="C40" s="10"/>
+      <c r="D40" s="10"/>
+      <c r="E40" s="10"/>
+      <c r="F40" s="10"/>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A41" s="14"/>
-      <c r="B41" s="14"/>
-      <c r="C41" s="14"/>
-      <c r="D41" s="14"/>
-      <c r="E41" s="14"/>
-      <c r="F41" s="14"/>
+      <c r="A41" s="10"/>
+      <c r="B41" s="10"/>
+      <c r="C41" s="10"/>
+      <c r="D41" s="10"/>
+      <c r="E41" s="10"/>
+      <c r="F41" s="10"/>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A42" s="14"/>
-      <c r="B42" s="14"/>
-      <c r="C42" s="14"/>
-      <c r="D42" s="14"/>
-      <c r="E42" s="14"/>
-      <c r="F42" s="14"/>
+      <c r="A42" s="10"/>
+      <c r="B42" s="10"/>
+      <c r="C42" s="10"/>
+      <c r="D42" s="10"/>
+      <c r="E42" s="10"/>
+      <c r="F42" s="10"/>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A43" s="14"/>
-      <c r="B43" s="14"/>
-      <c r="C43" s="14"/>
-      <c r="D43" s="14"/>
-      <c r="E43" s="14"/>
-      <c r="F43" s="14"/>
+      <c r="A43" s="10"/>
+      <c r="B43" s="10"/>
+      <c r="C43" s="10"/>
+      <c r="D43" s="10"/>
+      <c r="E43" s="10"/>
+      <c r="F43" s="10"/>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A44" s="14"/>
-      <c r="B44" s="14"/>
-      <c r="C44" s="14"/>
-      <c r="D44" s="14"/>
-      <c r="E44" s="14"/>
-      <c r="F44" s="14"/>
+      <c r="A44" s="10"/>
+      <c r="B44" s="10"/>
+      <c r="C44" s="10"/>
+      <c r="D44" s="10"/>
+      <c r="E44" s="10"/>
+      <c r="F44" s="10"/>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A45" s="14"/>
-      <c r="B45" s="14"/>
-      <c r="C45" s="14"/>
-      <c r="D45" s="14"/>
-      <c r="E45" s="14"/>
-      <c r="F45" s="14"/>
+      <c r="A45" s="10"/>
+      <c r="B45" s="10"/>
+      <c r="C45" s="10"/>
+      <c r="D45" s="10"/>
+      <c r="E45" s="10"/>
+      <c r="F45" s="10"/>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A46" s="14"/>
-      <c r="B46" s="14"/>
-      <c r="C46" s="14"/>
-      <c r="D46" s="14"/>
-      <c r="E46" s="14"/>
-      <c r="F46" s="14"/>
+      <c r="A46" s="10"/>
+      <c r="B46" s="10"/>
+      <c r="C46" s="10"/>
+      <c r="D46" s="10"/>
+      <c r="E46" s="10"/>
+      <c r="F46" s="10"/>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A47" s="14"/>
-      <c r="B47" s="14"/>
-      <c r="C47" s="14"/>
-      <c r="D47" s="14"/>
-      <c r="E47" s="14"/>
-      <c r="F47" s="14"/>
+      <c r="A47" s="10"/>
+      <c r="B47" s="10"/>
+      <c r="C47" s="10"/>
+      <c r="D47" s="10"/>
+      <c r="E47" s="10"/>
+      <c r="F47" s="10"/>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A48" s="14"/>
-      <c r="B48" s="14"/>
-      <c r="C48" s="14"/>
-      <c r="D48" s="14"/>
-      <c r="E48" s="14"/>
-      <c r="F48" s="14"/>
+      <c r="A48" s="10"/>
+      <c r="B48" s="10"/>
+      <c r="C48" s="10"/>
+      <c r="D48" s="10"/>
+      <c r="E48" s="10"/>
+      <c r="F48" s="10"/>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A49" s="14"/>
-      <c r="B49" s="14"/>
-      <c r="C49" s="14"/>
-      <c r="D49" s="14"/>
-      <c r="E49" s="14"/>
-      <c r="F49" s="14"/>
+      <c r="A49" s="10"/>
+      <c r="B49" s="10"/>
+      <c r="C49" s="10"/>
+      <c r="D49" s="10"/>
+      <c r="E49" s="10"/>
+      <c r="F49" s="10"/>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A50" s="14"/>
-      <c r="B50" s="14"/>
-      <c r="C50" s="14"/>
-      <c r="D50" s="14"/>
-      <c r="E50" s="14"/>
-      <c r="F50" s="14"/>
+      <c r="A50" s="10"/>
+      <c r="B50" s="10"/>
+      <c r="C50" s="10"/>
+      <c r="D50" s="10"/>
+      <c r="E50" s="10"/>
+      <c r="F50" s="10"/>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A51" s="14"/>
-      <c r="B51" s="14"/>
-      <c r="C51" s="14"/>
-      <c r="D51" s="14"/>
-      <c r="E51" s="14"/>
-      <c r="F51" s="14"/>
+      <c r="A51" s="10"/>
+      <c r="B51" s="10"/>
+      <c r="C51" s="10"/>
+      <c r="D51" s="10"/>
+      <c r="E51" s="10"/>
+      <c r="F51" s="10"/>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A52" s="14"/>
-      <c r="B52" s="14"/>
-      <c r="C52" s="14"/>
-      <c r="D52" s="14"/>
-      <c r="E52" s="14"/>
-      <c r="F52" s="14"/>
+      <c r="A52" s="10"/>
+      <c r="B52" s="10"/>
+      <c r="C52" s="10"/>
+      <c r="D52" s="10"/>
+      <c r="E52" s="10"/>
+      <c r="F52" s="10"/>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A53" s="14"/>
-      <c r="B53" s="14"/>
-      <c r="C53" s="14"/>
-      <c r="D53" s="14"/>
-      <c r="E53" s="14"/>
-      <c r="F53" s="14"/>
+      <c r="A53" s="10"/>
+      <c r="B53" s="10"/>
+      <c r="C53" s="10"/>
+      <c r="D53" s="10"/>
+      <c r="E53" s="10"/>
+      <c r="F53" s="10"/>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A54" s="14"/>
-      <c r="B54" s="14"/>
-      <c r="C54" s="14"/>
-      <c r="D54" s="14"/>
-      <c r="E54" s="14"/>
-      <c r="F54" s="14"/>
+      <c r="A54" s="10"/>
+      <c r="B54" s="10"/>
+      <c r="C54" s="10"/>
+      <c r="D54" s="10"/>
+      <c r="E54" s="10"/>
+      <c r="F54" s="10"/>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A55" s="14"/>
-      <c r="B55" s="14"/>
-      <c r="C55" s="14"/>
-      <c r="D55" s="14"/>
-      <c r="E55" s="14"/>
-      <c r="F55" s="14"/>
+      <c r="A55" s="10"/>
+      <c r="B55" s="10"/>
+      <c r="C55" s="10"/>
+      <c r="D55" s="10"/>
+      <c r="E55" s="10"/>
+      <c r="F55" s="10"/>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A56" s="14"/>
-      <c r="B56" s="14"/>
-      <c r="C56" s="14"/>
-      <c r="D56" s="14"/>
-      <c r="E56" s="14"/>
-      <c r="F56" s="14"/>
+      <c r="A56" s="10"/>
+      <c r="B56" s="10"/>
+      <c r="C56" s="10"/>
+      <c r="D56" s="10"/>
+      <c r="E56" s="10"/>
+      <c r="F56" s="10"/>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A57" s="14"/>
-      <c r="B57" s="14"/>
-      <c r="C57" s="14"/>
-      <c r="D57" s="14"/>
-      <c r="E57" s="14"/>
-      <c r="F57" s="14"/>
+      <c r="A57" s="10"/>
+      <c r="B57" s="10"/>
+      <c r="C57" s="10"/>
+      <c r="D57" s="10"/>
+      <c r="E57" s="10"/>
+      <c r="F57" s="10"/>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A58" s="14"/>
-      <c r="B58" s="14"/>
-      <c r="C58" s="14"/>
-      <c r="D58" s="14"/>
-      <c r="E58" s="14"/>
-      <c r="F58" s="14"/>
+      <c r="A58" s="10"/>
+      <c r="B58" s="10"/>
+      <c r="C58" s="10"/>
+      <c r="D58" s="10"/>
+      <c r="E58" s="10"/>
+      <c r="F58" s="10"/>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A59" s="14"/>
-      <c r="B59" s="14"/>
-      <c r="C59" s="14"/>
-      <c r="D59" s="14"/>
-      <c r="E59" s="14"/>
-      <c r="F59" s="14"/>
+      <c r="A59" s="10"/>
+      <c r="B59" s="10"/>
+      <c r="C59" s="10"/>
+      <c r="D59" s="10"/>
+      <c r="E59" s="10"/>
+      <c r="F59" s="10"/>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A60" s="14"/>
-      <c r="B60" s="14"/>
-      <c r="C60" s="14"/>
-      <c r="D60" s="14"/>
-      <c r="E60" s="14"/>
-      <c r="F60" s="14"/>
+      <c r="A60" s="10"/>
+      <c r="B60" s="10"/>
+      <c r="C60" s="10"/>
+      <c r="D60" s="10"/>
+      <c r="E60" s="10"/>
+      <c r="F60" s="10"/>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A61" s="14"/>
-      <c r="B61" s="14"/>
-      <c r="C61" s="14"/>
-      <c r="D61" s="14"/>
-      <c r="E61" s="14"/>
-      <c r="F61" s="14"/>
+      <c r="A61" s="10"/>
+      <c r="B61" s="10"/>
+      <c r="C61" s="10"/>
+      <c r="D61" s="10"/>
+      <c r="E61" s="10"/>
+      <c r="F61" s="10"/>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A62" s="14"/>
-      <c r="B62" s="14"/>
-      <c r="C62" s="14"/>
-      <c r="D62" s="14"/>
-      <c r="E62" s="14"/>
-      <c r="F62" s="14"/>
+      <c r="A62" s="10"/>
+      <c r="B62" s="10"/>
+      <c r="C62" s="10"/>
+      <c r="D62" s="10"/>
+      <c r="E62" s="10"/>
+      <c r="F62" s="10"/>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A63" s="14"/>
-      <c r="B63" s="14"/>
-      <c r="C63" s="14"/>
-      <c r="D63" s="14"/>
-      <c r="E63" s="14"/>
-      <c r="F63" s="14"/>
+      <c r="A63" s="10"/>
+      <c r="B63" s="10"/>
+      <c r="C63" s="10"/>
+      <c r="D63" s="10"/>
+      <c r="E63" s="10"/>
+      <c r="F63" s="10"/>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A64" s="14"/>
-      <c r="B64" s="14"/>
-      <c r="C64" s="14"/>
-      <c r="D64" s="14"/>
-      <c r="E64" s="14"/>
-      <c r="F64" s="14"/>
+      <c r="A64" s="10"/>
+      <c r="B64" s="10"/>
+      <c r="C64" s="10"/>
+      <c r="D64" s="10"/>
+      <c r="E64" s="10"/>
+      <c r="F64" s="10"/>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A65" s="14"/>
-      <c r="B65" s="14"/>
-      <c r="C65" s="14"/>
-      <c r="D65" s="14"/>
-      <c r="E65" s="14"/>
-      <c r="F65" s="14"/>
+      <c r="A65" s="10"/>
+      <c r="B65" s="10"/>
+      <c r="C65" s="10"/>
+      <c r="D65" s="10"/>
+      <c r="E65" s="10"/>
+      <c r="F65" s="10"/>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A66" s="14"/>
-      <c r="B66" s="14"/>
-      <c r="C66" s="14"/>
-      <c r="D66" s="14"/>
-      <c r="E66" s="14"/>
-      <c r="F66" s="14"/>
+      <c r="A66" s="10"/>
+      <c r="B66" s="10"/>
+      <c r="C66" s="10"/>
+      <c r="D66" s="10"/>
+      <c r="E66" s="10"/>
+      <c r="F66" s="10"/>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A67" s="14"/>
-      <c r="B67" s="14"/>
-      <c r="C67" s="14"/>
-      <c r="D67" s="14"/>
-      <c r="E67" s="14"/>
-      <c r="F67" s="14"/>
+      <c r="A67" s="10"/>
+      <c r="B67" s="10"/>
+      <c r="C67" s="10"/>
+      <c r="D67" s="10"/>
+      <c r="E67" s="10"/>
+      <c r="F67" s="10"/>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A68" s="14"/>
-      <c r="B68" s="14"/>
-      <c r="C68" s="14"/>
-      <c r="D68" s="14"/>
-      <c r="E68" s="14"/>
-      <c r="F68" s="14"/>
+      <c r="A68" s="10"/>
+      <c r="B68" s="10"/>
+      <c r="C68" s="10"/>
+      <c r="D68" s="10"/>
+      <c r="E68" s="10"/>
+      <c r="F68" s="10"/>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A69" s="14"/>
-      <c r="B69" s="14"/>
-      <c r="C69" s="14"/>
-      <c r="D69" s="14"/>
-      <c r="E69" s="14"/>
-      <c r="F69" s="14"/>
+      <c r="A69" s="10"/>
+      <c r="B69" s="10"/>
+      <c r="C69" s="10"/>
+      <c r="D69" s="10"/>
+      <c r="E69" s="10"/>
+      <c r="F69" s="10"/>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A70" s="14"/>
-      <c r="B70" s="14"/>
-      <c r="C70" s="14"/>
-      <c r="D70" s="14"/>
-      <c r="E70" s="14"/>
-      <c r="F70" s="14"/>
+      <c r="A70" s="10"/>
+      <c r="B70" s="10"/>
+      <c r="C70" s="10"/>
+      <c r="D70" s="10"/>
+      <c r="E70" s="10"/>
+      <c r="F70" s="10"/>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A71" s="14"/>
-      <c r="B71" s="14"/>
-      <c r="C71" s="14"/>
-      <c r="D71" s="14"/>
-      <c r="E71" s="14"/>
-      <c r="F71" s="14"/>
+      <c r="A71" s="10"/>
+      <c r="B71" s="10"/>
+      <c r="C71" s="10"/>
+      <c r="D71" s="10"/>
+      <c r="E71" s="10"/>
+      <c r="F71" s="10"/>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A72" s="14"/>
-      <c r="B72" s="14"/>
-      <c r="C72" s="14"/>
-      <c r="D72" s="14"/>
-      <c r="E72" s="14"/>
-      <c r="F72" s="14"/>
+      <c r="A72" s="10"/>
+      <c r="B72" s="10"/>
+      <c r="C72" s="10"/>
+      <c r="D72" s="10"/>
+      <c r="E72" s="10"/>
+      <c r="F72" s="10"/>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A73" s="14"/>
-      <c r="B73" s="14"/>
-      <c r="C73" s="14"/>
-      <c r="D73" s="14"/>
-      <c r="E73" s="14"/>
-      <c r="F73" s="14"/>
+      <c r="A73" s="10"/>
+      <c r="B73" s="10"/>
+      <c r="C73" s="10"/>
+      <c r="D73" s="10"/>
+      <c r="E73" s="10"/>
+      <c r="F73" s="10"/>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A74" s="14"/>
-      <c r="B74" s="14"/>
-      <c r="C74" s="14"/>
-      <c r="D74" s="14"/>
-      <c r="E74" s="14"/>
-      <c r="F74" s="14"/>
+      <c r="A74" s="10"/>
+      <c r="B74" s="10"/>
+      <c r="C74" s="10"/>
+      <c r="D74" s="10"/>
+      <c r="E74" s="10"/>
+      <c r="F74" s="10"/>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A75" s="14"/>
-      <c r="B75" s="14"/>
-      <c r="C75" s="14"/>
-      <c r="D75" s="14"/>
-      <c r="E75" s="14"/>
-      <c r="F75" s="14"/>
+      <c r="A75" s="10"/>
+      <c r="B75" s="10"/>
+      <c r="C75" s="10"/>
+      <c r="D75" s="10"/>
+      <c r="E75" s="10"/>
+      <c r="F75" s="10"/>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A76" s="14"/>
-      <c r="B76" s="14"/>
-      <c r="C76" s="14"/>
-      <c r="D76" s="14"/>
-      <c r="E76" s="14"/>
-      <c r="F76" s="14"/>
+      <c r="A76" s="10"/>
+      <c r="B76" s="10"/>
+      <c r="C76" s="10"/>
+      <c r="D76" s="10"/>
+      <c r="E76" s="10"/>
+      <c r="F76" s="10"/>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A77" s="14"/>
-      <c r="B77" s="14"/>
-      <c r="C77" s="14"/>
-      <c r="D77" s="14"/>
-      <c r="E77" s="14"/>
-      <c r="F77" s="14"/>
+      <c r="A77" s="10"/>
+      <c r="B77" s="10"/>
+      <c r="C77" s="10"/>
+      <c r="D77" s="10"/>
+      <c r="E77" s="10"/>
+      <c r="F77" s="10"/>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A78" s="14"/>
-      <c r="B78" s="14"/>
-      <c r="C78" s="14"/>
-      <c r="D78" s="14"/>
-      <c r="E78" s="14"/>
-      <c r="F78" s="14"/>
+      <c r="A78" s="10"/>
+      <c r="B78" s="10"/>
+      <c r="C78" s="10"/>
+      <c r="D78" s="10"/>
+      <c r="E78" s="10"/>
+      <c r="F78" s="10"/>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A79" s="14"/>
-      <c r="B79" s="14"/>
-      <c r="C79" s="14"/>
-      <c r="D79" s="14"/>
-      <c r="E79" s="14"/>
-      <c r="F79" s="14"/>
+      <c r="A79" s="10"/>
+      <c r="B79" s="10"/>
+      <c r="C79" s="10"/>
+      <c r="D79" s="10"/>
+      <c r="E79" s="10"/>
+      <c r="F79" s="10"/>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A80" s="14"/>
-      <c r="B80" s="14"/>
-      <c r="C80" s="14"/>
-      <c r="D80" s="14"/>
-      <c r="E80" s="14"/>
-      <c r="F80" s="14"/>
+      <c r="A80" s="10"/>
+      <c r="B80" s="10"/>
+      <c r="C80" s="10"/>
+      <c r="D80" s="10"/>
+      <c r="E80" s="10"/>
+      <c r="F80" s="10"/>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A81" s="14"/>
-      <c r="B81" s="14"/>
-      <c r="C81" s="14"/>
-      <c r="D81" s="14"/>
-      <c r="E81" s="14"/>
-      <c r="F81" s="14"/>
+      <c r="A81" s="10"/>
+      <c r="B81" s="10"/>
+      <c r="C81" s="10"/>
+      <c r="D81" s="10"/>
+      <c r="E81" s="10"/>
+      <c r="F81" s="10"/>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A82" s="14"/>
-      <c r="B82" s="14"/>
-      <c r="C82" s="14"/>
-      <c r="D82" s="14"/>
-      <c r="E82" s="14"/>
-      <c r="F82" s="14"/>
+      <c r="A82" s="10"/>
+      <c r="B82" s="10"/>
+      <c r="C82" s="10"/>
+      <c r="D82" s="10"/>
+      <c r="E82" s="10"/>
+      <c r="F82" s="10"/>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A83" s="14"/>
-      <c r="B83" s="14"/>
-      <c r="C83" s="14"/>
-      <c r="D83" s="14"/>
-      <c r="E83" s="14"/>
-      <c r="F83" s="14"/>
+      <c r="A83" s="10"/>
+      <c r="B83" s="10"/>
+      <c r="C83" s="10"/>
+      <c r="D83" s="10"/>
+      <c r="E83" s="10"/>
+      <c r="F83" s="10"/>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A84" s="14"/>
-      <c r="B84" s="14"/>
-      <c r="C84" s="14"/>
-      <c r="D84" s="14"/>
-      <c r="E84" s="14"/>
-      <c r="F84" s="14"/>
+      <c r="A84" s="10"/>
+      <c r="B84" s="10"/>
+      <c r="C84" s="10"/>
+      <c r="D84" s="10"/>
+      <c r="E84" s="10"/>
+      <c r="F84" s="10"/>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A85" s="14"/>
-      <c r="B85" s="14"/>
-      <c r="C85" s="14"/>
-      <c r="D85" s="14"/>
-      <c r="E85" s="14"/>
-      <c r="F85" s="14"/>
+      <c r="A85" s="10"/>
+      <c r="B85" s="10"/>
+      <c r="C85" s="10"/>
+      <c r="D85" s="10"/>
+      <c r="E85" s="10"/>
+      <c r="F85" s="10"/>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A86" s="14"/>
-      <c r="B86" s="14"/>
-      <c r="C86" s="14"/>
-      <c r="D86" s="14"/>
-      <c r="E86" s="14"/>
-      <c r="F86" s="14"/>
+      <c r="A86" s="10"/>
+      <c r="B86" s="10"/>
+      <c r="C86" s="10"/>
+      <c r="D86" s="10"/>
+      <c r="E86" s="10"/>
+      <c r="F86" s="10"/>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A87" s="14"/>
-      <c r="B87" s="14"/>
-      <c r="C87" s="14"/>
-      <c r="D87" s="14"/>
-      <c r="E87" s="14"/>
-      <c r="F87" s="14"/>
+      <c r="A87" s="10"/>
+      <c r="B87" s="10"/>
+      <c r="C87" s="10"/>
+      <c r="D87" s="10"/>
+      <c r="E87" s="10"/>
+      <c r="F87" s="10"/>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A88" s="14"/>
-      <c r="B88" s="14"/>
-      <c r="C88" s="14"/>
-      <c r="D88" s="14"/>
-      <c r="E88" s="14"/>
-      <c r="F88" s="14"/>
+      <c r="A88" s="10"/>
+      <c r="B88" s="10"/>
+      <c r="C88" s="10"/>
+      <c r="D88" s="10"/>
+      <c r="E88" s="10"/>
+      <c r="F88" s="10"/>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A89" s="14"/>
-      <c r="B89" s="14"/>
-      <c r="C89" s="14"/>
-      <c r="D89" s="14"/>
-      <c r="E89" s="14"/>
-      <c r="F89" s="14"/>
+      <c r="A89" s="10"/>
+      <c r="B89" s="10"/>
+      <c r="C89" s="10"/>
+      <c r="D89" s="10"/>
+      <c r="E89" s="10"/>
+      <c r="F89" s="10"/>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A90" s="14"/>
-      <c r="B90" s="14"/>
-      <c r="C90" s="14"/>
-      <c r="D90" s="14"/>
-      <c r="E90" s="14"/>
-      <c r="F90" s="14"/>
+      <c r="A90" s="10"/>
+      <c r="B90" s="10"/>
+      <c r="C90" s="10"/>
+      <c r="D90" s="10"/>
+      <c r="E90" s="10"/>
+      <c r="F90" s="10"/>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A91" s="14"/>
-      <c r="B91" s="14"/>
-      <c r="C91" s="14"/>
-      <c r="D91" s="14"/>
-      <c r="E91" s="14"/>
-      <c r="F91" s="14"/>
+      <c r="A91" s="10"/>
+      <c r="B91" s="10"/>
+      <c r="C91" s="10"/>
+      <c r="D91" s="10"/>
+      <c r="E91" s="10"/>
+      <c r="F91" s="10"/>
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A92" s="14"/>
-      <c r="B92" s="14"/>
-      <c r="C92" s="14"/>
-      <c r="D92" s="14"/>
-      <c r="E92" s="14"/>
-      <c r="F92" s="14"/>
+      <c r="A92" s="10"/>
+      <c r="B92" s="10"/>
+      <c r="C92" s="10"/>
+      <c r="D92" s="10"/>
+      <c r="E92" s="10"/>
+      <c r="F92" s="10"/>
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A93" s="14"/>
-      <c r="B93" s="14"/>
-      <c r="C93" s="14"/>
-      <c r="D93" s="14"/>
-      <c r="E93" s="14"/>
-      <c r="F93" s="14"/>
+      <c r="A93" s="10"/>
+      <c r="B93" s="10"/>
+      <c r="C93" s="10"/>
+      <c r="D93" s="10"/>
+      <c r="E93" s="10"/>
+      <c r="F93" s="10"/>
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A94" s="14"/>
-      <c r="B94" s="14"/>
-      <c r="C94" s="14"/>
-      <c r="D94" s="14"/>
-      <c r="E94" s="14"/>
-      <c r="F94" s="14"/>
+      <c r="A94" s="10"/>
+      <c r="B94" s="10"/>
+      <c r="C94" s="10"/>
+      <c r="D94" s="10"/>
+      <c r="E94" s="10"/>
+      <c r="F94" s="10"/>
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A95" s="14"/>
-      <c r="B95" s="14"/>
-      <c r="C95" s="14"/>
-      <c r="D95" s="14"/>
-      <c r="E95" s="14"/>
-      <c r="F95" s="14"/>
+      <c r="A95" s="10"/>
+      <c r="B95" s="10"/>
+      <c r="C95" s="10"/>
+      <c r="D95" s="10"/>
+      <c r="E95" s="10"/>
+      <c r="F95" s="10"/>
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A96" s="14"/>
-      <c r="B96" s="14"/>
-      <c r="C96" s="14"/>
-      <c r="D96" s="14"/>
-      <c r="E96" s="14"/>
-      <c r="F96" s="14"/>
+      <c r="A96" s="10"/>
+      <c r="B96" s="10"/>
+      <c r="C96" s="10"/>
+      <c r="D96" s="10"/>
+      <c r="E96" s="10"/>
+      <c r="F96" s="10"/>
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A97" s="14"/>
-      <c r="B97" s="14"/>
-      <c r="C97" s="14"/>
-      <c r="D97" s="14"/>
-      <c r="E97" s="14"/>
-      <c r="F97" s="14"/>
+      <c r="A97" s="10"/>
+      <c r="B97" s="10"/>
+      <c r="C97" s="10"/>
+      <c r="D97" s="10"/>
+      <c r="E97" s="10"/>
+      <c r="F97" s="10"/>
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A98" s="14"/>
-      <c r="B98" s="14"/>
-      <c r="C98" s="14"/>
-      <c r="D98" s="14"/>
-      <c r="E98" s="14"/>
-      <c r="F98" s="14"/>
+      <c r="A98" s="10"/>
+      <c r="B98" s="10"/>
+      <c r="C98" s="10"/>
+      <c r="D98" s="10"/>
+      <c r="E98" s="10"/>
+      <c r="F98" s="10"/>
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A99" s="14"/>
-      <c r="B99" s="14"/>
-      <c r="C99" s="14"/>
-      <c r="D99" s="14"/>
-      <c r="E99" s="14"/>
-      <c r="F99" s="14"/>
+      <c r="A99" s="10"/>
+      <c r="B99" s="10"/>
+      <c r="C99" s="10"/>
+      <c r="D99" s="10"/>
+      <c r="E99" s="10"/>
+      <c r="F99" s="10"/>
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A100" s="14"/>
-      <c r="B100" s="14"/>
-      <c r="C100" s="14"/>
-      <c r="D100" s="14"/>
-      <c r="E100" s="14"/>
-      <c r="F100" s="14"/>
+      <c r="A100" s="10"/>
+      <c r="B100" s="10"/>
+      <c r="C100" s="10"/>
+      <c r="D100" s="10"/>
+      <c r="E100" s="10"/>
+      <c r="F100" s="10"/>
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A101" s="14"/>
-      <c r="B101" s="14"/>
-      <c r="C101" s="14"/>
-      <c r="D101" s="14"/>
-      <c r="E101" s="14"/>
-      <c r="F101" s="14"/>
+      <c r="A101" s="10"/>
+      <c r="B101" s="10"/>
+      <c r="C101" s="10"/>
+      <c r="D101" s="10"/>
+      <c r="E101" s="10"/>
+      <c r="F101" s="10"/>
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A102" s="14"/>
-      <c r="B102" s="14"/>
-      <c r="C102" s="14"/>
-      <c r="D102" s="14"/>
-      <c r="E102" s="14"/>
-      <c r="F102" s="14"/>
+      <c r="A102" s="10"/>
+      <c r="B102" s="10"/>
+      <c r="C102" s="10"/>
+      <c r="D102" s="10"/>
+      <c r="E102" s="10"/>
+      <c r="F102" s="10"/>
     </row>
     <row r="103" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A103" s="14"/>
-      <c r="B103" s="14"/>
-      <c r="C103" s="14"/>
-      <c r="D103" s="14"/>
-      <c r="E103" s="14"/>
-      <c r="F103" s="14"/>
+      <c r="A103" s="10"/>
+      <c r="B103" s="10"/>
+      <c r="C103" s="10"/>
+      <c r="D103" s="10"/>
+      <c r="E103" s="10"/>
+      <c r="F103" s="10"/>
     </row>
     <row r="104" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A104" s="14"/>
-      <c r="B104" s="14"/>
-      <c r="C104" s="14"/>
-      <c r="D104" s="14"/>
-      <c r="E104" s="14"/>
-      <c r="F104" s="14"/>
+      <c r="A104" s="10"/>
+      <c r="B104" s="10"/>
+      <c r="C104" s="10"/>
+      <c r="D104" s="10"/>
+      <c r="E104" s="10"/>
+      <c r="F104" s="10"/>
     </row>
     <row r="105" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A105" s="14"/>
-      <c r="B105" s="14"/>
-      <c r="C105" s="14"/>
-      <c r="D105" s="14"/>
-      <c r="E105" s="14"/>
-      <c r="F105" s="14"/>
+      <c r="A105" s="10"/>
+      <c r="B105" s="10"/>
+      <c r="C105" s="10"/>
+      <c r="D105" s="10"/>
+      <c r="E105" s="10"/>
+      <c r="F105" s="10"/>
     </row>
     <row r="106" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A106" s="14"/>
-      <c r="B106" s="14"/>
-      <c r="C106" s="14"/>
-      <c r="D106" s="14"/>
-      <c r="E106" s="14"/>
-      <c r="F106" s="14"/>
+      <c r="A106" s="10"/>
+      <c r="B106" s="10"/>
+      <c r="C106" s="10"/>
+      <c r="D106" s="10"/>
+      <c r="E106" s="10"/>
+      <c r="F106" s="10"/>
     </row>
     <row r="107" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A107" s="14"/>
-      <c r="B107" s="14"/>
-      <c r="C107" s="14"/>
-      <c r="D107" s="14"/>
-      <c r="E107" s="14"/>
-      <c r="F107" s="14"/>
+      <c r="A107" s="10"/>
+      <c r="B107" s="10"/>
+      <c r="C107" s="10"/>
+      <c r="D107" s="10"/>
+      <c r="E107" s="10"/>
+      <c r="F107" s="10"/>
     </row>
     <row r="108" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A108" s="14"/>
-      <c r="B108" s="14"/>
-      <c r="C108" s="14"/>
-      <c r="D108" s="14"/>
-      <c r="E108" s="14"/>
-      <c r="F108" s="14"/>
+      <c r="A108" s="10"/>
+      <c r="B108" s="10"/>
+      <c r="C108" s="10"/>
+      <c r="D108" s="10"/>
+      <c r="E108" s="10"/>
+      <c r="F108" s="10"/>
     </row>
     <row r="109" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A109" s="14"/>
-      <c r="B109" s="14"/>
-      <c r="C109" s="14"/>
-      <c r="D109" s="14"/>
-      <c r="E109" s="14"/>
-      <c r="F109" s="14"/>
+      <c r="A109" s="10"/>
+      <c r="B109" s="10"/>
+      <c r="C109" s="10"/>
+      <c r="D109" s="10"/>
+      <c r="E109" s="10"/>
+      <c r="F109" s="10"/>
     </row>
     <row r="110" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A110" s="14"/>
-      <c r="B110" s="14"/>
-      <c r="C110" s="14"/>
-      <c r="D110" s="14"/>
-      <c r="E110" s="14"/>
-      <c r="F110" s="14"/>
+      <c r="A110" s="10"/>
+      <c r="B110" s="10"/>
+      <c r="C110" s="10"/>
+      <c r="D110" s="10"/>
+      <c r="E110" s="10"/>
+      <c r="F110" s="10"/>
     </row>
     <row r="111" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A111" s="14"/>
-      <c r="B111" s="14"/>
-      <c r="C111" s="14"/>
-      <c r="D111" s="14"/>
-      <c r="E111" s="14"/>
-      <c r="F111" s="14"/>
+      <c r="A111" s="10"/>
+      <c r="B111" s="10"/>
+      <c r="C111" s="10"/>
+      <c r="D111" s="10"/>
+      <c r="E111" s="10"/>
+      <c r="F111" s="10"/>
     </row>
     <row r="112" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A112" s="14"/>
-      <c r="B112" s="14"/>
-      <c r="C112" s="14"/>
-      <c r="D112" s="14"/>
-      <c r="E112" s="14"/>
-      <c r="F112" s="14"/>
+      <c r="A112" s="10"/>
+      <c r="B112" s="10"/>
+      <c r="C112" s="10"/>
+      <c r="D112" s="10"/>
+      <c r="E112" s="10"/>
+      <c r="F112" s="10"/>
     </row>
     <row r="113" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A113" s="14"/>
-      <c r="B113" s="14"/>
-      <c r="C113" s="14"/>
-      <c r="D113" s="14"/>
-      <c r="E113" s="14"/>
-      <c r="F113" s="14"/>
+      <c r="A113" s="10"/>
+      <c r="B113" s="10"/>
+      <c r="C113" s="10"/>
+      <c r="D113" s="10"/>
+      <c r="E113" s="10"/>
+      <c r="F113" s="10"/>
     </row>
     <row r="114" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A114" s="14"/>
-      <c r="B114" s="14"/>
-      <c r="C114" s="14"/>
-      <c r="D114" s="14"/>
-      <c r="E114" s="14"/>
-      <c r="F114" s="14"/>
+      <c r="A114" s="10"/>
+      <c r="B114" s="10"/>
+      <c r="C114" s="10"/>
+      <c r="D114" s="10"/>
+      <c r="E114" s="10"/>
+      <c r="F114" s="10"/>
     </row>
     <row r="115" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A115" s="14"/>
-      <c r="B115" s="14"/>
-      <c r="C115" s="14"/>
-      <c r="D115" s="14"/>
-      <c r="E115" s="14"/>
-      <c r="F115" s="14"/>
+      <c r="A115" s="10"/>
+      <c r="B115" s="10"/>
+      <c r="C115" s="10"/>
+      <c r="D115" s="10"/>
+      <c r="E115" s="10"/>
+      <c r="F115" s="10"/>
     </row>
     <row r="116" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A116" s="14"/>
-      <c r="B116" s="14"/>
-      <c r="C116" s="14"/>
-      <c r="D116" s="14"/>
-      <c r="E116" s="14"/>
-      <c r="F116" s="14"/>
+      <c r="A116" s="10"/>
+      <c r="B116" s="10"/>
+      <c r="C116" s="10"/>
+      <c r="D116" s="10"/>
+      <c r="E116" s="10"/>
+      <c r="F116" s="10"/>
     </row>
     <row r="117" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A117" s="14"/>
-      <c r="B117" s="14"/>
-      <c r="C117" s="14"/>
-      <c r="D117" s="14"/>
-      <c r="E117" s="14"/>
-      <c r="F117" s="14"/>
+      <c r="A117" s="10"/>
+      <c r="B117" s="10"/>
+      <c r="C117" s="10"/>
+      <c r="D117" s="10"/>
+      <c r="E117" s="10"/>
+      <c r="F117" s="10"/>
     </row>
     <row r="118" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A118" s="14"/>
-      <c r="B118" s="14"/>
-      <c r="C118" s="14"/>
-      <c r="D118" s="14"/>
-      <c r="E118" s="14"/>
-      <c r="F118" s="14"/>
+      <c r="A118" s="10"/>
+      <c r="B118" s="10"/>
+      <c r="C118" s="10"/>
+      <c r="D118" s="10"/>
+      <c r="E118" s="10"/>
+      <c r="F118" s="10"/>
     </row>
     <row r="119" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A119" s="14"/>
-      <c r="B119" s="14"/>
-      <c r="C119" s="14"/>
-      <c r="D119" s="14"/>
-      <c r="E119" s="14"/>
-      <c r="F119" s="14"/>
+      <c r="A119" s="10"/>
+      <c r="B119" s="10"/>
+      <c r="C119" s="10"/>
+      <c r="D119" s="10"/>
+      <c r="E119" s="10"/>
+      <c r="F119" s="10"/>
     </row>
     <row r="120" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A120" s="14"/>
-      <c r="B120" s="14"/>
-      <c r="C120" s="14"/>
-      <c r="D120" s="14"/>
-      <c r="E120" s="14"/>
-      <c r="F120" s="14"/>
+      <c r="A120" s="10"/>
+      <c r="B120" s="10"/>
+      <c r="C120" s="10"/>
+      <c r="D120" s="10"/>
+      <c r="E120" s="10"/>
+      <c r="F120" s="10"/>
     </row>
     <row r="121" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A121" s="14"/>
-      <c r="B121" s="14"/>
-      <c r="C121" s="14"/>
-      <c r="D121" s="14"/>
-      <c r="E121" s="14"/>
-      <c r="F121" s="14"/>
+      <c r="A121" s="10"/>
+      <c r="B121" s="10"/>
+      <c r="C121" s="10"/>
+      <c r="D121" s="10"/>
+      <c r="E121" s="10"/>
+      <c r="F121" s="10"/>
     </row>
     <row r="122" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A122" s="14"/>
-      <c r="B122" s="14"/>
-      <c r="C122" s="14"/>
-      <c r="D122" s="14"/>
-      <c r="E122" s="14"/>
-      <c r="F122" s="14"/>
+      <c r="A122" s="10"/>
+      <c r="B122" s="10"/>
+      <c r="C122" s="10"/>
+      <c r="D122" s="10"/>
+      <c r="E122" s="10"/>
+      <c r="F122" s="10"/>
     </row>
     <row r="123" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A123" s="14"/>
-      <c r="B123" s="14"/>
-      <c r="C123" s="14"/>
-      <c r="D123" s="14"/>
-      <c r="E123" s="14"/>
-      <c r="F123" s="14"/>
+      <c r="A123" s="10"/>
+      <c r="B123" s="10"/>
+      <c r="C123" s="10"/>
+      <c r="D123" s="10"/>
+      <c r="E123" s="10"/>
+      <c r="F123" s="10"/>
     </row>
     <row r="124" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A124" s="14"/>
-      <c r="B124" s="14"/>
-      <c r="C124" s="14"/>
-      <c r="D124" s="14"/>
-      <c r="E124" s="14"/>
-      <c r="F124" s="14"/>
+      <c r="A124" s="10"/>
+      <c r="B124" s="10"/>
+      <c r="C124" s="10"/>
+      <c r="D124" s="10"/>
+      <c r="E124" s="10"/>
+      <c r="F124" s="10"/>
     </row>
     <row r="125" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A125" s="14"/>
-      <c r="B125" s="14"/>
-      <c r="C125" s="14"/>
-      <c r="D125" s="14"/>
-      <c r="E125" s="14"/>
-      <c r="F125" s="14"/>
+      <c r="A125" s="10"/>
+      <c r="B125" s="10"/>
+      <c r="C125" s="10"/>
+      <c r="D125" s="10"/>
+      <c r="E125" s="10"/>
+      <c r="F125" s="10"/>
     </row>
     <row r="126" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A126" s="14"/>
-      <c r="B126" s="14"/>
-      <c r="C126" s="14"/>
-      <c r="D126" s="14"/>
-      <c r="E126" s="14"/>
-      <c r="F126" s="14"/>
+      <c r="A126" s="10"/>
+      <c r="B126" s="10"/>
+      <c r="C126" s="10"/>
+      <c r="D126" s="10"/>
+      <c r="E126" s="10"/>
+      <c r="F126" s="10"/>
     </row>
     <row r="127" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A127" s="14"/>
-      <c r="B127" s="14"/>
-      <c r="C127" s="14"/>
-      <c r="D127" s="14"/>
-      <c r="E127" s="14"/>
-      <c r="F127" s="14"/>
+      <c r="A127" s="10"/>
+      <c r="B127" s="10"/>
+      <c r="C127" s="10"/>
+      <c r="D127" s="10"/>
+      <c r="E127" s="10"/>
+      <c r="F127" s="10"/>
     </row>
     <row r="128" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A128" s="14"/>
-      <c r="B128" s="14"/>
-      <c r="C128" s="14"/>
-      <c r="D128" s="14"/>
-      <c r="E128" s="14"/>
-      <c r="F128" s="14"/>
+      <c r="A128" s="10"/>
+      <c r="B128" s="10"/>
+      <c r="C128" s="10"/>
+      <c r="D128" s="10"/>
+      <c r="E128" s="10"/>
+      <c r="F128" s="10"/>
     </row>
     <row r="129" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A129" s="14"/>
-      <c r="B129" s="14"/>
-      <c r="C129" s="14"/>
-      <c r="D129" s="14"/>
-      <c r="E129" s="14"/>
-      <c r="F129" s="14"/>
+      <c r="A129" s="10"/>
+      <c r="B129" s="10"/>
+      <c r="C129" s="10"/>
+      <c r="D129" s="10"/>
+      <c r="E129" s="10"/>
+      <c r="F129" s="10"/>
     </row>
     <row r="130" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A130" s="14"/>
-      <c r="B130" s="14"/>
-      <c r="C130" s="14"/>
-      <c r="D130" s="14"/>
-      <c r="E130" s="14"/>
-      <c r="F130" s="14"/>
+      <c r="A130" s="10"/>
+      <c r="B130" s="10"/>
+      <c r="C130" s="10"/>
+      <c r="D130" s="10"/>
+      <c r="E130" s="10"/>
+      <c r="F130" s="10"/>
     </row>
     <row r="131" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A131" s="14"/>
-      <c r="B131" s="14"/>
-      <c r="C131" s="14"/>
-      <c r="D131" s="14"/>
-      <c r="E131" s="14"/>
-      <c r="F131" s="14"/>
+      <c r="A131" s="10"/>
+      <c r="B131" s="10"/>
+      <c r="C131" s="10"/>
+      <c r="D131" s="10"/>
+      <c r="E131" s="10"/>
+      <c r="F131" s="10"/>
     </row>
     <row r="132" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A132" s="14"/>
-      <c r="B132" s="14"/>
-      <c r="C132" s="14"/>
-      <c r="D132" s="14"/>
-      <c r="E132" s="14"/>
-      <c r="F132" s="14"/>
+      <c r="A132" s="10"/>
+      <c r="B132" s="10"/>
+      <c r="C132" s="10"/>
+      <c r="D132" s="10"/>
+      <c r="E132" s="10"/>
+      <c r="F132" s="10"/>
     </row>
     <row r="133" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A133" s="14"/>
-      <c r="B133" s="14"/>
-      <c r="C133" s="14"/>
-      <c r="D133" s="14"/>
-      <c r="E133" s="14"/>
-      <c r="F133" s="14"/>
+      <c r="A133" s="10"/>
+      <c r="B133" s="10"/>
+      <c r="C133" s="10"/>
+      <c r="D133" s="10"/>
+      <c r="E133" s="10"/>
+      <c r="F133" s="10"/>
     </row>
     <row r="134" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A134" s="14"/>
-      <c r="B134" s="14"/>
-      <c r="C134" s="14"/>
-      <c r="D134" s="14"/>
-      <c r="E134" s="14"/>
-      <c r="F134" s="14"/>
+      <c r="A134" s="10"/>
+      <c r="B134" s="10"/>
+      <c r="C134" s="10"/>
+      <c r="D134" s="10"/>
+      <c r="E134" s="10"/>
+      <c r="F134" s="10"/>
     </row>
     <row r="135" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A135" s="14"/>
-      <c r="B135" s="14"/>
-      <c r="C135" s="14"/>
-      <c r="D135" s="14"/>
-      <c r="E135" s="14"/>
-      <c r="F135" s="14"/>
+      <c r="A135" s="10"/>
+      <c r="B135" s="10"/>
+      <c r="C135" s="10"/>
+      <c r="D135" s="10"/>
+      <c r="E135" s="10"/>
+      <c r="F135" s="10"/>
     </row>
     <row r="136" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A136" s="14"/>
-      <c r="B136" s="14"/>
-      <c r="C136" s="14"/>
-      <c r="D136" s="14"/>
-      <c r="E136" s="14"/>
-      <c r="F136" s="14"/>
+      <c r="A136" s="10"/>
+      <c r="B136" s="10"/>
+      <c r="C136" s="10"/>
+      <c r="D136" s="10"/>
+      <c r="E136" s="10"/>
+      <c r="F136" s="10"/>
     </row>
     <row r="137" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A137" s="14"/>
-      <c r="B137" s="14"/>
-      <c r="C137" s="14"/>
-      <c r="D137" s="14"/>
-      <c r="E137" s="14"/>
-      <c r="F137" s="14"/>
+      <c r="A137" s="10"/>
+      <c r="B137" s="10"/>
+      <c r="C137" s="10"/>
+      <c r="D137" s="10"/>
+      <c r="E137" s="10"/>
+      <c r="F137" s="10"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2243,22 +2617,23 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
+  <sheetPr codeName="Feuil2">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A3:P28"/>
+  <dimension ref="A3:P86"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A29" sqref="A29"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="20.85546875" style="18" customWidth="1"/>
-    <col min="2" max="2" width="21.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="31.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="26.140625" customWidth="1"/>
-    <col min="5" max="6" width="31.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="24.85546875" style="14" customWidth="1"/>
+    <col min="2" max="2" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="41.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="37.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="31.5703125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="11.85546875" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="10.85546875" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="12.140625" bestFit="1" customWidth="1"/>
@@ -2272,7 +2647,7 @@
   </cols>
   <sheetData>
     <row r="3" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A3" s="16"/>
+      <c r="A3" s="12"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
@@ -2280,68 +2655,70 @@
       <c r="F3" s="1"/>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A4" s="16" t="s">
-        <v>54</v>
+      <c r="A4" s="12" t="s">
+        <v>53</v>
       </c>
       <c r="B4" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E4" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="D4" s="1" t="s">
+      <c r="F4" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G4" t="s">
         <v>26</v>
       </c>
-      <c r="E4" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F4" s="1" t="s">
+      <c r="H4" t="s">
         <v>14</v>
       </c>
-      <c r="G4" t="s">
+      <c r="I4" t="s">
+        <v>15</v>
+      </c>
+      <c r="J4" t="s">
+        <v>16</v>
+      </c>
+      <c r="K4" t="s">
+        <v>17</v>
+      </c>
+      <c r="L4" t="s">
+        <v>18</v>
+      </c>
+      <c r="M4" t="s">
+        <v>19</v>
+      </c>
+      <c r="N4" t="s">
+        <v>20</v>
+      </c>
+      <c r="O4" t="s">
+        <v>21</v>
+      </c>
+      <c r="P4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A5" s="13" t="s">
+        <v>148</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="H4" t="s">
-        <v>15</v>
-      </c>
-      <c r="I4" t="s">
-        <v>16</v>
-      </c>
-      <c r="J4" t="s">
-        <v>17</v>
-      </c>
-      <c r="K4" t="s">
-        <v>18</v>
-      </c>
-      <c r="L4" t="s">
-        <v>19</v>
-      </c>
-      <c r="M4" t="s">
-        <v>20</v>
-      </c>
-      <c r="N4" t="s">
-        <v>21</v>
-      </c>
-      <c r="O4" t="s">
-        <v>22</v>
-      </c>
-      <c r="P4" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A5" s="17"/>
-      <c r="B5" s="1" t="s">
+      <c r="C5" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="D5" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="E5" s="1" t="s">
         <v>30</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>31</v>
       </c>
       <c r="F5" s="1">
         <v>58858172</v>
@@ -2353,43 +2730,43 @@
         <v>16043</v>
       </c>
       <c r="I5" t="s">
+        <v>31</v>
+      </c>
+      <c r="J5" t="s">
         <v>32</v>
       </c>
-      <c r="J5" t="s">
+      <c r="K5" t="s">
         <v>33</v>
       </c>
-      <c r="K5" t="s">
+      <c r="L5" t="s">
         <v>34</v>
       </c>
-      <c r="L5" t="s">
+      <c r="M5" t="s">
         <v>35</v>
       </c>
-      <c r="M5" t="s">
+      <c r="N5" t="s">
         <v>36</v>
       </c>
-      <c r="N5" t="s">
+      <c r="O5" t="s">
         <v>37</v>
       </c>
-      <c r="O5" t="s">
+      <c r="P5" t="s">
         <v>38</v>
       </c>
-      <c r="P5" t="s">
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A6" s="12"/>
+      <c r="B6" s="1" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A6" s="16"/>
-      <c r="B6" s="1" t="s">
+      <c r="C6" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D6" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="C6" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>41</v>
-      </c>
       <c r="E6" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F6" s="1">
         <v>58859117</v>
@@ -2398,46 +2775,46 @@
         <v>58866549</v>
       </c>
       <c r="H6" t="s">
+        <v>41</v>
+      </c>
+      <c r="I6" t="s">
         <v>42</v>
       </c>
-      <c r="I6" t="s">
+      <c r="J6" t="s">
+        <v>32</v>
+      </c>
+      <c r="K6" t="s">
+        <v>33</v>
+      </c>
+      <c r="L6" t="s">
+        <v>34</v>
+      </c>
+      <c r="M6" t="s">
+        <v>35</v>
+      </c>
+      <c r="N6" t="s">
+        <v>36</v>
+      </c>
+      <c r="O6" t="s">
+        <v>37</v>
+      </c>
+      <c r="P6" t="s">
         <v>43</v>
       </c>
-      <c r="J6" t="s">
-        <v>33</v>
-      </c>
-      <c r="K6" t="s">
-        <v>34</v>
-      </c>
-      <c r="L6" t="s">
-        <v>35</v>
-      </c>
-      <c r="M6" t="s">
-        <v>36</v>
-      </c>
-      <c r="N6" t="s">
-        <v>37</v>
-      </c>
-      <c r="O6" t="s">
-        <v>38</v>
-      </c>
-      <c r="P6" t="s">
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A7" s="12"/>
+      <c r="B7" s="1" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A7" s="16"/>
-      <c r="B7" s="1" t="s">
+      <c r="C7" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="D7" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="D7" s="1" t="s">
+      <c r="E7" s="1" t="s">
         <v>47</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>48</v>
       </c>
       <c r="F7" s="1">
         <v>52559169</v>
@@ -2449,32 +2826,32 @@
         <v>86267</v>
       </c>
       <c r="I7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="J7" t="s">
+        <v>48</v>
+      </c>
+      <c r="K7" t="s">
         <v>49</v>
       </c>
-      <c r="K7" t="s">
+      <c r="L7" t="s">
         <v>50</v>
       </c>
-      <c r="L7" t="s">
+      <c r="M7" t="s">
         <v>51</v>
       </c>
-      <c r="M7" t="s">
+      <c r="N7" t="s">
+        <v>36</v>
+      </c>
+      <c r="O7" t="s">
+        <v>37</v>
+      </c>
+      <c r="P7" t="s">
         <v>52</v>
       </c>
-      <c r="N7" t="s">
-        <v>37</v>
-      </c>
-      <c r="O7" t="s">
-        <v>38</v>
-      </c>
-      <c r="P7" t="s">
-        <v>53</v>
-      </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A8" s="16"/>
+      <c r="A8" s="12"/>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
@@ -2482,7 +2859,7 @@
       <c r="F8" s="1"/>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A9" s="16"/>
+      <c r="A9" s="12"/>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
@@ -2490,7 +2867,7 @@
       <c r="F9" s="1"/>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A10" s="16"/>
+      <c r="A10" s="12"/>
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
@@ -2498,219 +2875,221 @@
       <c r="F10" s="1"/>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A11" s="16" t="s">
-        <v>96</v>
+      <c r="A11" s="12" t="s">
+        <v>95</v>
       </c>
       <c r="B11" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C11" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="C11" s="1" t="s">
+      <c r="D11" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="D11" s="1" t="s">
+      <c r="E11" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="E11" s="1" t="s">
+      <c r="F11" t="s">
+        <v>17</v>
+      </c>
+      <c r="G11" t="s">
         <v>58</v>
       </c>
-      <c r="F11" t="s">
-        <v>18</v>
-      </c>
-      <c r="G11" t="s">
+      <c r="H11" t="s">
         <v>59</v>
       </c>
-      <c r="H11" t="s">
+      <c r="I11" t="s">
         <v>60</v>
       </c>
-      <c r="I11" t="s">
+      <c r="J11" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A12" s="13" t="s">
+        <v>149</v>
+      </c>
+      <c r="B12" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="J11" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A12" s="16"/>
-      <c r="B12" s="1" t="s">
+      <c r="C12" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="C12" s="1" t="s">
+      <c r="D12" s="1" t="s">
         <v>63</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>64</v>
       </c>
       <c r="E12" s="1">
         <v>249116709</v>
       </c>
       <c r="F12" t="s">
+        <v>64</v>
+      </c>
+      <c r="G12" t="s">
         <v>65</v>
       </c>
-      <c r="G12" t="s">
+      <c r="H12" t="s">
         <v>66</v>
       </c>
-      <c r="H12" t="s">
+      <c r="I12" t="s">
         <v>67</v>
       </c>
-      <c r="I12" t="s">
+      <c r="J12" t="s">
         <v>68</v>
       </c>
-      <c r="J12" t="s">
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A13" s="12"/>
+      <c r="B13" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C13" s="1" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A13" s="16"/>
-      <c r="B13" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="C13" s="1" t="s">
+      <c r="D13" s="1" t="s">
         <v>70</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>71</v>
       </c>
       <c r="E13" s="1">
         <v>242497851</v>
       </c>
       <c r="F13" t="s">
+        <v>71</v>
+      </c>
+      <c r="G13" t="s">
         <v>72</v>
       </c>
-      <c r="G13" t="s">
+      <c r="H13" t="s">
         <v>73</v>
       </c>
-      <c r="H13" t="s">
+      <c r="I13" t="s">
         <v>74</v>
       </c>
-      <c r="I13" t="s">
+      <c r="J13" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A14" s="12"/>
+      <c r="B14" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C14" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="J13" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A14" s="16"/>
-      <c r="B14" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="C14" s="1" t="s">
+      <c r="D14" s="1" t="s">
         <v>76</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>77</v>
       </c>
       <c r="E14" s="1">
         <v>197683938</v>
       </c>
       <c r="F14" t="s">
+        <v>77</v>
+      </c>
+      <c r="G14" t="s">
         <v>78</v>
       </c>
-      <c r="G14" t="s">
+      <c r="H14" t="s">
+        <v>73</v>
+      </c>
+      <c r="I14" t="s">
         <v>79</v>
       </c>
-      <c r="H14" t="s">
-        <v>74</v>
-      </c>
-      <c r="I14" t="s">
+      <c r="J14" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A15" s="12"/>
+      <c r="B15" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C15" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="J14" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A15" s="16"/>
-      <c r="B15" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="C15" s="1" t="s">
+      <c r="D15" s="1" t="s">
         <v>81</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>82</v>
       </c>
       <c r="E15" s="1">
         <v>190921709</v>
       </c>
       <c r="F15" t="s">
+        <v>82</v>
+      </c>
+      <c r="G15" t="s">
         <v>83</v>
       </c>
-      <c r="G15" t="s">
+      <c r="H15" t="s">
+        <v>66</v>
+      </c>
+      <c r="I15" t="s">
         <v>84</v>
       </c>
-      <c r="H15" t="s">
-        <v>67</v>
-      </c>
-      <c r="I15" t="s">
+      <c r="J15" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A16" s="12"/>
+      <c r="B16" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C16" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="J15" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A16" s="16"/>
-      <c r="B16" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="C16" s="1" t="s">
+      <c r="D16" s="1" t="s">
         <v>86</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>87</v>
       </c>
       <c r="E16" s="1">
         <v>180579439</v>
       </c>
       <c r="F16" t="s">
+        <v>87</v>
+      </c>
+      <c r="G16" t="s">
         <v>88</v>
       </c>
-      <c r="G16" t="s">
+      <c r="H16" t="s">
+        <v>73</v>
+      </c>
+      <c r="I16" t="s">
         <v>89</v>
       </c>
-      <c r="H16" t="s">
-        <v>74</v>
-      </c>
-      <c r="I16" t="s">
+      <c r="J16" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A17" s="12"/>
+      <c r="B17" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C17" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="J16" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A17" s="16"/>
-      <c r="B17" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="C17" s="1" t="s">
+      <c r="D17" s="1" t="s">
         <v>91</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>92</v>
       </c>
       <c r="E17" s="1">
         <v>170849100</v>
       </c>
       <c r="F17" t="s">
+        <v>92</v>
+      </c>
+      <c r="G17" t="s">
         <v>93</v>
       </c>
-      <c r="G17" t="s">
+      <c r="H17" t="s">
+        <v>66</v>
+      </c>
+      <c r="I17" t="s">
         <v>94</v>
       </c>
-      <c r="H17" t="s">
-        <v>67</v>
-      </c>
-      <c r="I17" t="s">
-        <v>95</v>
-      </c>
       <c r="J17" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A18" s="16"/>
+      <c r="A18" s="12"/>
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
       <c r="D18" s="1"/>
@@ -2718,7 +3097,7 @@
       <c r="F18" s="1"/>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A19" s="16"/>
+      <c r="A19" s="12"/>
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
       <c r="D19" s="1"/>
@@ -2726,7 +3105,7 @@
       <c r="F19" s="1"/>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A20" s="16"/>
+      <c r="A20" s="12"/>
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
       <c r="D20" s="1"/>
@@ -2734,63 +3113,65 @@
       <c r="F20" s="1"/>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A21" s="16" t="s">
+      <c r="A21" s="12" t="s">
+        <v>101</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A22" s="12" t="s">
+        <v>150</v>
+      </c>
+      <c r="B22" t="s">
+        <v>108</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="12"/>
+      <c r="B23" t="s">
+        <v>107</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="E23" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="B21" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="D21" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="E21" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="F21" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A22" s="16"/>
-      <c r="B22" t="s">
-        <v>113</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="D22" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="E22" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="F22" s="1" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="16"/>
-      <c r="B23" t="s">
-        <v>112</v>
-      </c>
-      <c r="C23" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="D23" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="E23" s="2" t="s">
-        <v>108</v>
-      </c>
       <c r="F23" s="2" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A24" s="16"/>
+      <c r="A24" s="12"/>
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
       <c r="D24" s="1"/>
@@ -2798,7 +3179,7 @@
       <c r="F24" s="1"/>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A25" s="16"/>
+      <c r="A25" s="12"/>
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
@@ -2806,7 +3187,7 @@
       <c r="F25" s="1"/>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A26" s="16"/>
+      <c r="A26" s="12"/>
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
       <c r="D26" s="1"/>
@@ -2814,23 +3195,340 @@
       <c r="F26" s="1"/>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A27" s="18" t="s">
-        <v>120</v>
+      <c r="A27" s="14" t="s">
+        <v>113</v>
       </c>
     </row>
     <row r="28" spans="1:10" ht="76.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="19" t="s">
-        <v>123</v>
+      <c r="A28" s="15" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A67" s="14" t="s">
+        <v>146</v>
+      </c>
+      <c r="B67" t="s">
+        <v>128</v>
+      </c>
+      <c r="C67" t="s">
+        <v>129</v>
+      </c>
+      <c r="D67" t="s">
+        <v>130</v>
+      </c>
+      <c r="E67" t="s">
+        <v>145</v>
+      </c>
+      <c r="F67" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A68" s="14" t="s">
+        <v>147</v>
+      </c>
+      <c r="B68" t="s">
+        <v>131</v>
+      </c>
+      <c r="C68">
+        <v>6</v>
+      </c>
+      <c r="D68">
+        <v>94609</v>
+      </c>
+      <c r="E68" t="s">
+        <v>133</v>
+      </c>
+      <c r="F68" t="s">
+        <v>134</v>
+      </c>
+      <c r="G68" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B69" t="s">
+        <v>135</v>
+      </c>
+      <c r="C69">
+        <v>6</v>
+      </c>
+      <c r="D69">
+        <v>110632</v>
+      </c>
+      <c r="E69" t="s">
+        <v>136</v>
+      </c>
+      <c r="F69" t="s">
+        <v>137</v>
+      </c>
+      <c r="G69" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B70" t="s">
+        <v>138</v>
+      </c>
+      <c r="C70">
+        <v>6</v>
+      </c>
+      <c r="D70">
+        <v>133969</v>
+      </c>
+      <c r="E70" t="s">
+        <v>139</v>
+      </c>
+      <c r="F70" t="s">
+        <v>140</v>
+      </c>
+      <c r="G70" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B71" t="s">
+        <v>141</v>
+      </c>
+      <c r="C71">
+        <v>6</v>
+      </c>
+      <c r="D71">
+        <v>151528</v>
+      </c>
+      <c r="E71" t="s">
+        <v>142</v>
+      </c>
+      <c r="F71" t="s">
+        <v>143</v>
+      </c>
+      <c r="G71" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A74" s="14" t="s">
+        <v>152</v>
+      </c>
+      <c r="B74" t="s">
+        <v>153</v>
+      </c>
+      <c r="C74" t="s">
+        <v>154</v>
+      </c>
+      <c r="D74" t="s">
+        <v>155</v>
+      </c>
+      <c r="E74" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A75" s="14" t="s">
+        <v>160</v>
+      </c>
+      <c r="B75" t="s">
+        <v>156</v>
+      </c>
+      <c r="C75">
+        <v>1</v>
+      </c>
+      <c r="D75">
+        <v>10004</v>
+      </c>
+      <c r="E75">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B76" t="s">
+        <v>157</v>
+      </c>
+      <c r="C76">
+        <v>19</v>
+      </c>
+      <c r="D76">
+        <v>46844</v>
+      </c>
+      <c r="E76">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A79" s="14" t="s">
+        <v>175</v>
+      </c>
+      <c r="B79" t="s">
+        <v>161</v>
+      </c>
+      <c r="C79" t="s">
+        <v>162</v>
+      </c>
+      <c r="D79" t="s">
+        <v>172</v>
+      </c>
+      <c r="E79" t="s">
+        <v>173</v>
+      </c>
+      <c r="F79" t="s">
+        <v>174</v>
+      </c>
+      <c r="G79" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B80" t="s">
+        <v>164</v>
+      </c>
+      <c r="C80">
+        <v>1</v>
+      </c>
+      <c r="D80">
+        <v>328296</v>
+      </c>
+      <c r="E80">
+        <v>79786669</v>
+      </c>
+      <c r="F80">
+        <v>2632</v>
+      </c>
+      <c r="G80" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="81" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B81" t="s">
+        <v>164</v>
+      </c>
+      <c r="C81">
+        <v>1</v>
+      </c>
+      <c r="D81">
+        <v>79787684</v>
+      </c>
+      <c r="E81">
+        <v>79787955</v>
+      </c>
+      <c r="F81">
+        <v>2</v>
+      </c>
+      <c r="G81" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="82" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B82" t="s">
+        <v>164</v>
+      </c>
+      <c r="C82">
+        <v>1</v>
+      </c>
+      <c r="D82">
+        <v>79791835</v>
+      </c>
+      <c r="E82">
+        <v>141706009</v>
+      </c>
+      <c r="F82">
+        <v>2075</v>
+      </c>
+      <c r="G82" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="83" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B83" t="s">
+        <v>164</v>
+      </c>
+      <c r="C83">
+        <v>1</v>
+      </c>
+      <c r="D83">
+        <v>142661411</v>
+      </c>
+      <c r="E83">
+        <v>245729550</v>
+      </c>
+      <c r="F83">
+        <v>4494</v>
+      </c>
+      <c r="G83" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="84" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B84" t="s">
+        <v>164</v>
+      </c>
+      <c r="C84">
+        <v>2</v>
+      </c>
+      <c r="D84">
+        <v>53452</v>
+      </c>
+      <c r="E84">
+        <v>44596407</v>
+      </c>
+      <c r="F84">
+        <v>1950</v>
+      </c>
+      <c r="G84" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="85" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B85" t="s">
+        <v>164</v>
+      </c>
+      <c r="C85">
+        <v>2</v>
+      </c>
+      <c r="D85">
+        <v>44600493</v>
+      </c>
+      <c r="E85">
+        <v>44601507</v>
+      </c>
+      <c r="F85">
+        <v>2</v>
+      </c>
+      <c r="G85" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="86" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B86" t="s">
+        <v>164</v>
+      </c>
+      <c r="C86">
+        <v>2</v>
+      </c>
+      <c r="D86">
+        <v>44620446</v>
+      </c>
+      <c r="E86">
+        <v>174439819</v>
+      </c>
+      <c r="F86">
+        <v>5505</v>
+      </c>
+      <c r="G86" t="s">
+        <v>171</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="55" orientation="landscape" r:id="rId1"/>
   <drawing r:id="rId2"/>
-  <tableParts count="3">
+  <tableParts count="6">
     <tablePart r:id="rId3"/>
     <tablePart r:id="rId4"/>
     <tablePart r:id="rId5"/>
+    <tablePart r:id="rId6"/>
+    <tablePart r:id="rId7"/>
+    <tablePart r:id="rId8"/>
   </tableParts>
 </worksheet>
 </file>
--- a/docs/docs_I_made/ebordron_review_packages_R__02_03_2022.xlsx
+++ b/docs/docs_I_made/ebordron_review_packages_R__02_03_2022.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="14385" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="14385"/>
   </bookViews>
   <sheets>
     <sheet name="main" sheetId="1" r:id="rId1"/>
@@ -24,8 +24,32 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>jc</author>
+  </authors>
+  <commentList>
+    <comment ref="F91" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">07/03: la liste des SNP probes utilisées pour calculer le GC score
+</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="179">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="267" uniqueCount="219">
   <si>
     <t>oncoscanR</t>
   </si>
@@ -52,9 +76,6 @@
   </si>
   <si>
     <t>CEL files, only</t>
-  </si>
-  <si>
-    <t>resolution</t>
   </si>
   <si>
     <t>platform</t>
@@ -523,38 +544,6 @@
     </r>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">Affymetrix SNP6.0 and cytoScanHD files: 
-- probeset.txt,
-- cychp.txt
-- cnchp.txt . 
-They are exported from ChAS or Affymetrix Power Tools.
-rCGH also supports custom arrays, but we need data from a cnchp file to build it. </t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>CF. tableau 3</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-  </si>
-  <si>
     <t>CF. tableau 4</t>
   </si>
   <si>
@@ -738,18 +727,152 @@
     </r>
   </si>
   <si>
-    <t>objet R: cghSeg
+    <t>input de GISTIC</t>
+  </si>
+  <si>
+    <t>in cnchp files</t>
+  </si>
+  <si>
+    <t>in filename.segments.txt</t>
+  </si>
+  <si>
+    <t>( format:  CBS output)</t>
+  </si>
+  <si>
+    <t>File extension/type</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>reference-file</t>
+  </si>
+  <si>
+    <t>REF_MODEL (HDF5)</t>
+  </si>
+  <si>
+    <t>Reference data generated by apt-copynumber-onco-ref</t>
+  </si>
+  <si>
+    <t>snp-qc-snp-list</t>
+  </si>
+  <si>
+    <t>txt</t>
+  </si>
+  <si>
+    <t>SNP probes used in calculating SNP QC</t>
+  </si>
+  <si>
+    <t>annotation-file</t>
+  </si>
+  <si>
+    <t>annot.db (SQLite)</t>
+  </si>
+  <si>
+    <t>Annotation data for probes and probesets</t>
+  </si>
+  <si>
+    <t>x-probes-file</t>
+  </si>
+  <si>
+    <t>chrXprobes (text)</t>
+  </si>
+  <si>
+    <t>List of X-chromosome probes</t>
+  </si>
+  <si>
+    <t>y-probes-file</t>
+  </si>
+  <si>
+    <t>chrYprobes (text)</t>
+  </si>
+  <si>
+    <t>List of Y-chromosome probes</t>
+  </si>
+  <si>
+    <t>cel-pairs-file</t>
+  </si>
+  <si>
+    <t>tsv</t>
+  </si>
+  <si>
+    <t>Cel file pairs (AT and GC channel for each sample) for experiments</t>
+  </si>
+  <si>
+    <t>tableau 7</t>
+  </si>
+  <si>
+    <t>Actual name</t>
+  </si>
+  <si>
+    <t>OncoScan.FFPE.na33.r1.REF_MODEL</t>
+  </si>
+  <si>
+    <t>OncoScan.na33.r1.annot.db</t>
+  </si>
+  <si>
+    <t>OncoScan.r1.chrYprobes</t>
+  </si>
+  <si>
+    <t>OncoScan.r1.chrXprobes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OncoScan.r1.snplist.txt </t>
+  </si>
+  <si>
+    <t>custom</t>
+  </si>
+  <si>
+    <t>C:\Users\e.bordron\Desktop\CGH-scoring\library_files_oncoscan\OncoScan_Array_analysis_Files_NA33-r3</t>
+  </si>
+  <si>
+    <t>input of 
+apt-copynumber-onco-ssa</t>
+  </si>
+  <si>
+    <t>CN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">fichier texte à 4 colonnes ayant pour lignes les sondes. Besoin du fichier CDF d'oncoscan -&gt; Tony Sierra
+OU
+d'utiliser apt-copynumber-onco-ssa -&gt; télécharger apt
+OU
+d'utiliser apt.oncoscan.2.4.0, une sous-partie d'EaCoN. -&gt; linux
+</t>
+  </si>
+  <si>
+    <t>valeurs LRR (CGHcall utilise les informations de breakpoint (par l'algo CBS, typiquement). Cela est envoyé vers un objet R: cghSeg
 https://www.rdocumentation.org/packages/CGHbase/versions/1.32.0/topics/cghSeg</t>
   </si>
   <si>
-    <t>need of cnchp files</t>
+    <t>classifie le LRR entre ref et tumeur en 5 états: double loss-homozygous (biallelic) deletion, loss-hemizygous deletion (loss of one of the alleles), normal-two copies, gain-three to four copies and amplification–more than four copies</t>
+  </si>
+  <si>
+    <t>résolution</t>
+  </si>
+  <si>
+    <t>calcul de différents scores de HRD</t>
+  </si>
+  <si>
+    <t>spécificité du package</t>
+  </si>
+  <si>
+    <t>système de visualisation interactive des données</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - prend en compte la cellularité (on la renseigne)
+- un mixture model est utilisé (outil de clustering statistique)
+- </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -765,8 +888,20 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial Unicode MS"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -782,6 +917,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -809,7 +950,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
@@ -857,11 +998,37 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="1">
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Arial Unicode MS"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -884,8 +1051,8 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>306324</xdr:colOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>1916049</xdr:colOff>
       <xdr:row>63</xdr:row>
       <xdr:rowOff>29672</xdr:rowOff>
     </xdr:to>
@@ -1010,6 +1177,20 @@
     <tableColumn id="4" name="End Position"/>
     <tableColumn id="5" name="Num Markers"/>
     <tableColumn id="6" name="Seg.CN"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="7" name="Tableau7" displayName="Tableau7" ref="B89:F95" totalsRowShown="0">
+  <autoFilter ref="B89:F95"/>
+  <tableColumns count="5">
+    <tableColumn id="1" name="Name"/>
+    <tableColumn id="2" name="File extension/type"/>
+    <tableColumn id="3" name="Description"/>
+    <tableColumn id="4" name="where to find it"/>
+    <tableColumn id="5" name="Actual name" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1283,8 +1464,8 @@
   </sheetPr>
   <dimension ref="A1:AC137"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView tabSelected="1" topLeftCell="C4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1295,7 +1476,7 @@
     <col min="4" max="4" width="72.7109375" style="11" customWidth="1"/>
     <col min="5" max="5" width="41.28515625" style="11" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="50.85546875" style="11" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.140625" style="4" customWidth="1"/>
+    <col min="7" max="7" width="33.28515625" style="4" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="11.7109375" style="4" customWidth="1"/>
     <col min="9" max="9" width="11.42578125" style="4"/>
     <col min="10" max="10" width="12" style="4" customWidth="1"/>
@@ -1321,12 +1502,14 @@
         <v>5</v>
       </c>
       <c r="E1" s="3" t="s">
+        <v>213</v>
+      </c>
+      <c r="F1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="F1" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="G1" s="4"/>
+      <c r="G1" s="3" t="s">
+        <v>215</v>
+      </c>
       <c r="H1" s="4"/>
       <c r="I1" s="4"/>
       <c r="J1" s="4"/>
@@ -1355,21 +1538,23 @@
         <v>0</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C2" s="6" t="s">
         <v>7</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E2" s="6" t="s">
         <v>6</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>111</v>
-      </c>
-      <c r="G2" s="4"/>
+        <v>110</v>
+      </c>
+      <c r="G2" s="6" t="s">
+        <v>214</v>
+      </c>
       <c r="H2" s="4"/>
       <c r="I2" s="4"/>
       <c r="J2" s="4"/>
@@ -1398,21 +1583,21 @@
         <v>2</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>8</v>
       </c>
       <c r="D3" s="9" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="G3" s="4"/>
+        <v>111</v>
+      </c>
+      <c r="G3" s="3"/>
       <c r="H3" s="4"/>
       <c r="I3" s="4"/>
       <c r="J3" s="4"/>
@@ -1436,26 +1621,28 @@
       <c r="AB3" s="4"/>
       <c r="AC3" s="4"/>
     </row>
-    <row r="4" spans="1:29" s="8" customFormat="1" ht="150" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:29" s="8" customFormat="1" ht="135" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
         <v>1</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>126</v>
+        <v>210</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="F4" s="6" t="s">
-        <v>117</v>
-      </c>
-      <c r="G4" s="4"/>
+        <v>116</v>
+      </c>
+      <c r="G4" s="6" t="s">
+        <v>216</v>
+      </c>
       <c r="H4" s="4"/>
       <c r="I4" s="4"/>
       <c r="J4" s="4"/>
@@ -1481,28 +1668,33 @@
     </row>
     <row r="5" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>118</v>
-      </c>
-      <c r="B5" s="3"/>
+        <v>117</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>209</v>
+      </c>
       <c r="C5" s="16" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="D5" s="3"/>
       <c r="E5" s="3"/>
       <c r="F5" s="3"/>
+      <c r="G5" s="3"/>
     </row>
     <row r="6" spans="1:29" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
-        <v>119</v>
-      </c>
-      <c r="B6" s="7"/>
+        <v>118</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>209</v>
+      </c>
       <c r="C6" s="6" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="D6" s="7"/>
       <c r="E6" s="6"/>
       <c r="F6" s="6"/>
-      <c r="G6" s="4"/>
+      <c r="G6" s="6"/>
       <c r="H6" s="4"/>
       <c r="I6" s="4"/>
       <c r="J6" s="4"/>
@@ -1528,28 +1720,33 @@
     </row>
     <row r="7" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>120</v>
-      </c>
-      <c r="B7" s="9"/>
+        <v>119</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>209</v>
+      </c>
       <c r="C7" s="3" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="D7" s="9"/>
       <c r="E7" s="3"/>
       <c r="F7" s="3"/>
+      <c r="G7" s="3"/>
     </row>
     <row r="8" spans="1:29" s="8" customFormat="1" ht="120" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
-        <v>121</v>
-      </c>
-      <c r="B8" s="7"/>
+        <v>120</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>209</v>
+      </c>
       <c r="C8" s="7" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="D8" s="7"/>
       <c r="E8" s="6"/>
       <c r="F8" s="6"/>
-      <c r="G8" s="4"/>
+      <c r="G8" s="6"/>
       <c r="H8" s="4"/>
       <c r="I8" s="4"/>
       <c r="J8" s="4"/>
@@ -1573,17 +1770,24 @@
       <c r="AB8" s="4"/>
       <c r="AC8" s="4"/>
     </row>
-    <row r="9" spans="1:29" ht="45" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:29" ht="106.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
-        <v>122</v>
-      </c>
-      <c r="B9" s="9"/>
+        <v>121</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>209</v>
+      </c>
       <c r="C9" s="9" t="s">
-        <v>177</v>
-      </c>
-      <c r="D9" s="9"/>
+        <v>211</v>
+      </c>
+      <c r="D9" s="9" t="s">
+        <v>212</v>
+      </c>
       <c r="E9" s="3"/>
       <c r="F9" s="3"/>
+      <c r="G9" s="9" t="s">
+        <v>218</v>
+      </c>
     </row>
     <row r="10" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A10" s="10"/>
@@ -1628,7 +1832,7 @@
     <row r="15" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A15" s="10"/>
       <c r="B15" s="10"/>
-      <c r="C15" s="10"/>
+      <c r="C15" s="19"/>
       <c r="D15" s="10"/>
       <c r="E15" s="10"/>
       <c r="F15" s="10"/>
@@ -1660,7 +1864,9 @@
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="10"/>
       <c r="B19" s="10"/>
-      <c r="C19" s="10"/>
+      <c r="C19" s="10" t="s">
+        <v>217</v>
+      </c>
       <c r="D19" s="10"/>
       <c r="E19" s="10"/>
       <c r="F19" s="10"/>
@@ -2611,19 +2817,19 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="48" orientation="landscape" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="43" orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Feuil2">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A3:P86"/>
+  <dimension ref="A3:P95"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+    <sheetView topLeftCell="A52" workbookViewId="0">
+      <selection activeCell="F88" sqref="F88"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2631,9 +2837,9 @@
     <col min="1" max="1" width="24.85546875" style="14" customWidth="1"/>
     <col min="2" max="2" width="17.28515625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="21.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="41.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="60.5703125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="37.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="31.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="34.28515625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="11.85546875" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="10.85546875" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="12.140625" bestFit="1" customWidth="1"/>
@@ -2656,69 +2862,69 @@
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" s="12" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E4" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C4" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="D4" s="1" t="s">
+      <c r="F4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G4" t="s">
         <v>25</v>
       </c>
-      <c r="E4" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F4" s="1" t="s">
+      <c r="H4" t="s">
         <v>13</v>
       </c>
-      <c r="G4" t="s">
-        <v>26</v>
-      </c>
-      <c r="H4" t="s">
+      <c r="I4" t="s">
         <v>14</v>
       </c>
-      <c r="I4" t="s">
+      <c r="J4" t="s">
         <v>15</v>
       </c>
-      <c r="J4" t="s">
+      <c r="K4" t="s">
         <v>16</v>
       </c>
-      <c r="K4" t="s">
+      <c r="L4" t="s">
         <v>17</v>
       </c>
-      <c r="L4" t="s">
+      <c r="M4" t="s">
         <v>18</v>
       </c>
-      <c r="M4" t="s">
+      <c r="N4" t="s">
         <v>19</v>
       </c>
-      <c r="N4" t="s">
+      <c r="O4" t="s">
         <v>20</v>
       </c>
-      <c r="O4" t="s">
+      <c r="P4" t="s">
         <v>21</v>
-      </c>
-      <c r="P4" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" s="13" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="B5" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C5" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="D5" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="E5" s="1" t="s">
         <v>29</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>30</v>
       </c>
       <c r="F5" s="1">
         <v>58858172</v>
@@ -2730,43 +2936,45 @@
         <v>16043</v>
       </c>
       <c r="I5" t="s">
+        <v>30</v>
+      </c>
+      <c r="J5" t="s">
         <v>31</v>
       </c>
-      <c r="J5" t="s">
+      <c r="K5" t="s">
         <v>32</v>
       </c>
-      <c r="K5" t="s">
+      <c r="L5" t="s">
         <v>33</v>
       </c>
-      <c r="L5" t="s">
+      <c r="M5" t="s">
         <v>34</v>
       </c>
-      <c r="M5" t="s">
+      <c r="N5" t="s">
         <v>35</v>
       </c>
-      <c r="N5" t="s">
+      <c r="O5" t="s">
         <v>36</v>
       </c>
-      <c r="O5" t="s">
+      <c r="P5" t="s">
         <v>37</v>
       </c>
-      <c r="P5" t="s">
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A6" s="12" t="s">
+        <v>178</v>
+      </c>
+      <c r="B6" s="1" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A6" s="12"/>
-      <c r="B6" s="1" t="s">
+      <c r="C6" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D6" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="C6" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>40</v>
-      </c>
       <c r="E6" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F6" s="1">
         <v>58859117</v>
@@ -2775,46 +2983,46 @@
         <v>58866549</v>
       </c>
       <c r="H6" t="s">
+        <v>40</v>
+      </c>
+      <c r="I6" t="s">
         <v>41</v>
       </c>
-      <c r="I6" t="s">
+      <c r="J6" t="s">
+        <v>31</v>
+      </c>
+      <c r="K6" t="s">
+        <v>32</v>
+      </c>
+      <c r="L6" t="s">
+        <v>33</v>
+      </c>
+      <c r="M6" t="s">
+        <v>34</v>
+      </c>
+      <c r="N6" t="s">
+        <v>35</v>
+      </c>
+      <c r="O6" t="s">
+        <v>36</v>
+      </c>
+      <c r="P6" t="s">
         <v>42</v>
-      </c>
-      <c r="J6" t="s">
-        <v>32</v>
-      </c>
-      <c r="K6" t="s">
-        <v>33</v>
-      </c>
-      <c r="L6" t="s">
-        <v>34</v>
-      </c>
-      <c r="M6" t="s">
-        <v>35</v>
-      </c>
-      <c r="N6" t="s">
-        <v>36</v>
-      </c>
-      <c r="O6" t="s">
-        <v>37</v>
-      </c>
-      <c r="P6" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7" s="12"/>
       <c r="B7" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C7" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="D7" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="D7" s="1" t="s">
+      <c r="E7" s="1" t="s">
         <v>46</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>47</v>
       </c>
       <c r="F7" s="1">
         <v>52559169</v>
@@ -2826,28 +3034,28 @@
         <v>86267</v>
       </c>
       <c r="I7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="J7" t="s">
+        <v>47</v>
+      </c>
+      <c r="K7" t="s">
         <v>48</v>
       </c>
-      <c r="K7" t="s">
+      <c r="L7" t="s">
         <v>49</v>
       </c>
-      <c r="L7" t="s">
+      <c r="M7" t="s">
         <v>50</v>
       </c>
-      <c r="M7" t="s">
+      <c r="N7" t="s">
+        <v>35</v>
+      </c>
+      <c r="O7" t="s">
+        <v>36</v>
+      </c>
+      <c r="P7" t="s">
         <v>51</v>
-      </c>
-      <c r="N7" t="s">
-        <v>36</v>
-      </c>
-      <c r="O7" t="s">
-        <v>37</v>
-      </c>
-      <c r="P7" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.25">
@@ -2876,216 +3084,216 @@
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A11" s="12" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B11" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C11" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="C11" s="1" t="s">
+      <c r="D11" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="D11" s="1" t="s">
+      <c r="E11" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="E11" s="1" t="s">
+      <c r="F11" t="s">
+        <v>16</v>
+      </c>
+      <c r="G11" t="s">
         <v>57</v>
       </c>
-      <c r="F11" t="s">
-        <v>17</v>
-      </c>
-      <c r="G11" t="s">
+      <c r="H11" t="s">
         <v>58</v>
       </c>
-      <c r="H11" t="s">
+      <c r="I11" t="s">
         <v>59</v>
       </c>
-      <c r="I11" t="s">
-        <v>60</v>
-      </c>
       <c r="J11" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A12" s="13" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="B12" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C12" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="C12" s="1" t="s">
+      <c r="D12" s="1" t="s">
         <v>62</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>63</v>
       </c>
       <c r="E12" s="1">
         <v>249116709</v>
       </c>
       <c r="F12" t="s">
+        <v>63</v>
+      </c>
+      <c r="G12" t="s">
         <v>64</v>
       </c>
-      <c r="G12" t="s">
+      <c r="H12" t="s">
         <v>65</v>
       </c>
-      <c r="H12" t="s">
+      <c r="I12" t="s">
         <v>66</v>
       </c>
-      <c r="I12" t="s">
+      <c r="J12" t="s">
         <v>67</v>
-      </c>
-      <c r="J12" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A13" s="12"/>
       <c r="B13" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C13" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="D13" s="1" t="s">
         <v>69</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>70</v>
       </c>
       <c r="E13" s="1">
         <v>242497851</v>
       </c>
       <c r="F13" t="s">
+        <v>70</v>
+      </c>
+      <c r="G13" t="s">
         <v>71</v>
       </c>
-      <c r="G13" t="s">
+      <c r="H13" t="s">
         <v>72</v>
       </c>
-      <c r="H13" t="s">
+      <c r="I13" t="s">
         <v>73</v>
       </c>
-      <c r="I13" t="s">
-        <v>74</v>
-      </c>
       <c r="J13" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A14" s="12"/>
       <c r="B14" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C14" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="D14" s="1" t="s">
         <v>75</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>76</v>
       </c>
       <c r="E14" s="1">
         <v>197683938</v>
       </c>
       <c r="F14" t="s">
+        <v>76</v>
+      </c>
+      <c r="G14" t="s">
         <v>77</v>
       </c>
-      <c r="G14" t="s">
+      <c r="H14" t="s">
+        <v>72</v>
+      </c>
+      <c r="I14" t="s">
         <v>78</v>
       </c>
-      <c r="H14" t="s">
-        <v>73</v>
-      </c>
-      <c r="I14" t="s">
-        <v>79</v>
-      </c>
       <c r="J14" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A15" s="12"/>
       <c r="B15" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C15" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="D15" s="1" t="s">
         <v>80</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>81</v>
       </c>
       <c r="E15" s="1">
         <v>190921709</v>
       </c>
       <c r="F15" t="s">
+        <v>81</v>
+      </c>
+      <c r="G15" t="s">
         <v>82</v>
       </c>
-      <c r="G15" t="s">
+      <c r="H15" t="s">
+        <v>65</v>
+      </c>
+      <c r="I15" t="s">
         <v>83</v>
       </c>
-      <c r="H15" t="s">
-        <v>66</v>
-      </c>
-      <c r="I15" t="s">
-        <v>84</v>
-      </c>
       <c r="J15" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A16" s="12"/>
       <c r="B16" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C16" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="D16" s="1" t="s">
         <v>85</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>86</v>
       </c>
       <c r="E16" s="1">
         <v>180579439</v>
       </c>
       <c r="F16" t="s">
+        <v>86</v>
+      </c>
+      <c r="G16" t="s">
         <v>87</v>
       </c>
-      <c r="G16" t="s">
+      <c r="H16" t="s">
+        <v>72</v>
+      </c>
+      <c r="I16" t="s">
         <v>88</v>
       </c>
-      <c r="H16" t="s">
-        <v>73</v>
-      </c>
-      <c r="I16" t="s">
-        <v>89</v>
-      </c>
       <c r="J16" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" s="12"/>
       <c r="B17" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C17" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="D17" s="1" t="s">
         <v>90</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>91</v>
       </c>
       <c r="E17" s="1">
         <v>170849100</v>
       </c>
       <c r="F17" t="s">
+        <v>91</v>
+      </c>
+      <c r="G17" t="s">
         <v>92</v>
       </c>
-      <c r="G17" t="s">
+      <c r="H17" t="s">
+        <v>65</v>
+      </c>
+      <c r="I17" t="s">
         <v>93</v>
       </c>
-      <c r="H17" t="s">
-        <v>66</v>
-      </c>
-      <c r="I17" t="s">
-        <v>94</v>
-      </c>
       <c r="J17" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
@@ -3114,60 +3322,60 @@
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" s="12" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C21" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="E21" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="D21" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="E21" s="1" t="s">
-        <v>100</v>
-      </c>
       <c r="F21" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" s="12" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="B22" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>98</v>
+        <v>177</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="23" spans="1:10" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="12"/>
       <c r="B23" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C23" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="D23" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="D23" s="2" t="s">
+      <c r="E23" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="E23" s="2" t="s">
+      <c r="F23" s="2" t="s">
         <v>104</v>
-      </c>
-      <c r="F23" s="2" t="s">
-        <v>105</v>
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
@@ -3196,40 +3404,40 @@
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27" s="14" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="28" spans="1:10" ht="76.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="15" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A67" s="14" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="B67" t="s">
+        <v>126</v>
+      </c>
+      <c r="C67" t="s">
+        <v>127</v>
+      </c>
+      <c r="D67" t="s">
         <v>128</v>
       </c>
-      <c r="C67" t="s">
-        <v>129</v>
-      </c>
-      <c r="D67" t="s">
-        <v>130</v>
-      </c>
       <c r="E67" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="F67" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A68" s="14" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="B68" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C68">
         <v>6</v>
@@ -3238,18 +3446,18 @@
         <v>94609</v>
       </c>
       <c r="E68" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="F68" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="G68" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B69" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C69">
         <v>6</v>
@@ -3258,18 +3466,18 @@
         <v>110632</v>
       </c>
       <c r="E69" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="F69" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="G69" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B70" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="C70">
         <v>6</v>
@@ -3278,18 +3486,18 @@
         <v>133969</v>
       </c>
       <c r="E70" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="F70" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="G70" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B71" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="C71">
         <v>6</v>
@@ -3298,38 +3506,38 @@
         <v>151528</v>
       </c>
       <c r="E71" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="F71" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="G71" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A74" s="14" t="s">
+        <v>150</v>
+      </c>
+      <c r="B74" t="s">
+        <v>151</v>
+      </c>
+      <c r="C74" t="s">
         <v>152</v>
       </c>
-      <c r="B74" t="s">
+      <c r="D74" t="s">
         <v>153</v>
       </c>
-      <c r="C74" t="s">
-        <v>154</v>
-      </c>
-      <c r="D74" t="s">
-        <v>155</v>
-      </c>
       <c r="E74" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A75" s="14" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="B75" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="C75">
         <v>1</v>
@@ -3343,7 +3551,7 @@
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B76" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="C76">
         <v>19</v>
@@ -3357,30 +3565,33 @@
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A79" s="14" t="s">
+        <v>173</v>
+      </c>
+      <c r="B79" t="s">
+        <v>159</v>
+      </c>
+      <c r="C79" t="s">
+        <v>160</v>
+      </c>
+      <c r="D79" t="s">
+        <v>170</v>
+      </c>
+      <c r="E79" t="s">
+        <v>171</v>
+      </c>
+      <c r="F79" t="s">
+        <v>172</v>
+      </c>
+      <c r="G79" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A80" s="14" t="s">
         <v>175</v>
       </c>
-      <c r="B79" t="s">
-        <v>161</v>
-      </c>
-      <c r="C79" t="s">
+      <c r="B80" t="s">
         <v>162</v>
-      </c>
-      <c r="D79" t="s">
-        <v>172</v>
-      </c>
-      <c r="E79" t="s">
-        <v>173</v>
-      </c>
-      <c r="F79" t="s">
-        <v>174</v>
-      </c>
-      <c r="G79" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B80" t="s">
-        <v>164</v>
       </c>
       <c r="C80">
         <v>1</v>
@@ -3395,12 +3606,12 @@
         <v>2632</v>
       </c>
       <c r="G80" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="81" spans="2:7" x14ac:dyDescent="0.25">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B81" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="C81">
         <v>1</v>
@@ -3415,12 +3626,12 @@
         <v>2</v>
       </c>
       <c r="G81" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="82" spans="2:7" x14ac:dyDescent="0.25">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B82" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="C82">
         <v>1</v>
@@ -3435,12 +3646,12 @@
         <v>2075</v>
       </c>
       <c r="G82" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="83" spans="2:7" x14ac:dyDescent="0.25">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B83" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="C83">
         <v>1</v>
@@ -3455,12 +3666,12 @@
         <v>4494</v>
       </c>
       <c r="G83" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="84" spans="2:7" x14ac:dyDescent="0.25">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B84" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="C84">
         <v>2</v>
@@ -3475,12 +3686,12 @@
         <v>1950</v>
       </c>
       <c r="G84" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="85" spans="2:7" x14ac:dyDescent="0.25">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B85" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="C85">
         <v>2</v>
@@ -3495,12 +3706,12 @@
         <v>2</v>
       </c>
       <c r="G85" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="86" spans="2:7" x14ac:dyDescent="0.25">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B86" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="C86">
         <v>2</v>
@@ -3515,20 +3726,147 @@
         <v>5505</v>
       </c>
       <c r="G86" t="s">
-        <v>171</v>
+        <v>169</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A89" s="14" t="s">
+        <v>199</v>
+      </c>
+      <c r="B89" t="s">
+        <v>151</v>
+      </c>
+      <c r="C89" t="s">
+        <v>179</v>
+      </c>
+      <c r="D89" t="s">
+        <v>180</v>
+      </c>
+      <c r="E89" t="s">
+        <v>107</v>
+      </c>
+      <c r="F89" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A90" s="15" t="s">
+        <v>208</v>
+      </c>
+      <c r="B90" t="s">
+        <v>181</v>
+      </c>
+      <c r="C90" t="s">
+        <v>182</v>
+      </c>
+      <c r="D90" t="s">
+        <v>183</v>
+      </c>
+      <c r="E90" t="s">
+        <v>207</v>
+      </c>
+      <c r="F90" s="17" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B91" t="s">
+        <v>184</v>
+      </c>
+      <c r="C91" t="s">
+        <v>185</v>
+      </c>
+      <c r="D91" t="s">
+        <v>186</v>
+      </c>
+      <c r="E91" t="s">
+        <v>207</v>
+      </c>
+      <c r="F91" s="18" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B92" t="s">
+        <v>187</v>
+      </c>
+      <c r="C92" t="s">
+        <v>188</v>
+      </c>
+      <c r="D92" t="s">
+        <v>189</v>
+      </c>
+      <c r="E92" t="s">
+        <v>207</v>
+      </c>
+      <c r="F92" s="17" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B93" t="s">
+        <v>190</v>
+      </c>
+      <c r="C93" t="s">
+        <v>191</v>
+      </c>
+      <c r="D93" t="s">
+        <v>192</v>
+      </c>
+      <c r="E93" t="s">
+        <v>207</v>
+      </c>
+      <c r="F93" s="17" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B94" t="s">
+        <v>193</v>
+      </c>
+      <c r="C94" t="s">
+        <v>194</v>
+      </c>
+      <c r="D94" t="s">
+        <v>195</v>
+      </c>
+      <c r="E94" t="s">
+        <v>207</v>
+      </c>
+      <c r="F94" s="17" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B95" t="s">
+        <v>196</v>
+      </c>
+      <c r="C95" t="s">
+        <v>197</v>
+      </c>
+      <c r="D95" t="s">
+        <v>198</v>
+      </c>
+      <c r="E95" t="s">
+        <v>206</v>
+      </c>
+      <c r="F95" t="s">
+        <v>206</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="55" orientation="landscape" r:id="rId1"/>
   <drawing r:id="rId2"/>
-  <tableParts count="6">
-    <tablePart r:id="rId3"/>
+  <legacyDrawing r:id="rId3"/>
+  <tableParts count="7">
     <tablePart r:id="rId4"/>
     <tablePart r:id="rId5"/>
     <tablePart r:id="rId6"/>
     <tablePart r:id="rId7"/>
     <tablePart r:id="rId8"/>
+    <tablePart r:id="rId9"/>
+    <tablePart r:id="rId10"/>
   </tableParts>
 </worksheet>
 </file>